--- a/outputs-HGR-r202/test-g__Lachnospira_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Lachnospira_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>Row</t>
   </si>
@@ -415,7 +415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -425,14 +425,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,51 +466,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -550,7 +554,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -594,7 +598,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -638,7 +642,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -682,7 +686,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -726,7 +730,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -770,3435 +774,3435 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0.019521727084680855</v>
+        <v>0.044065687931608165</v>
       </c>
       <c r="C8">
-        <v>0.0009446925394720661</v>
+        <v>0.39211886334737389</v>
       </c>
       <c r="D8">
-        <v>3.4895899651322629e-06</v>
+        <v>0.0022194427682103741</v>
       </c>
       <c r="E8">
-        <v>0.00074827725334592431</v>
+        <v>0.073568426941971424</v>
       </c>
       <c r="F8">
-        <v>0.97403419797086044</v>
+        <v>4.9611607978596392e-05</v>
       </c>
       <c r="G8">
-        <v>0.00034704321641277095</v>
+        <v>0.36095211764447432</v>
       </c>
       <c r="H8">
-        <v>7.8600491111323741e-05</v>
+        <v>0.004084458294678326</v>
       </c>
       <c r="I8">
-        <v>0.0031302832521258542</v>
+        <v>0.0047212114088749932</v>
       </c>
       <c r="J8">
-        <v>2.1629773867507065e-06</v>
+        <v>0.0070475394254820127</v>
       </c>
       <c r="K8">
-        <v>2.7611327879288699e-05</v>
+        <v>0.10747030295830021</v>
       </c>
       <c r="L8">
-        <v>5.9741889905915657e-05</v>
+        <v>0.00040892389222465478</v>
       </c>
       <c r="M8">
-        <v>0.0011021724068537469</v>
+        <v>0.0032934137788228654</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0.016833674750795103</v>
+        <v>0.078880787370975966</v>
       </c>
       <c r="C9">
-        <v>0.0014270854397995692</v>
+        <v>0.16927387110424233</v>
       </c>
       <c r="D9">
-        <v>2.1164245313809276e-06</v>
+        <v>0.0036481907886602976</v>
       </c>
       <c r="E9">
-        <v>0.00095248610235598361</v>
+        <v>0.19547858668509072</v>
       </c>
       <c r="F9">
-        <v>0.97444306693301608</v>
+        <v>0.00023350713647033193</v>
       </c>
       <c r="G9">
-        <v>3.9426596884809324e-05</v>
+        <v>0.39269941905432681</v>
       </c>
       <c r="H9">
-        <v>1.2040398764644258e-05</v>
+        <v>0.054155422849134022</v>
       </c>
       <c r="I9">
-        <v>0.0050903840388804317</v>
+        <v>0.0068504835198322954</v>
       </c>
       <c r="J9">
-        <v>4.8330329689622966e-07</v>
+        <v>0.031736393408804735</v>
       </c>
       <c r="K9">
-        <v>2.4404906751529912e-05</v>
+        <v>0.057478611362425033</v>
       </c>
       <c r="L9">
-        <v>4.311923585958679e-05</v>
+        <v>0.00094330701346075345</v>
       </c>
       <c r="M9">
-        <v>0.0011317118690640136</v>
+        <v>0.0086214197065770642</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0.03833650253529134</v>
+        <v>0.037867315861728749</v>
       </c>
       <c r="C10">
-        <v>0.013254144692148629</v>
+        <v>0.40989867394400009</v>
       </c>
       <c r="D10">
-        <v>0.02506678290148524</v>
+        <v>0.0018370188916367206</v>
       </c>
       <c r="E10">
-        <v>0.79862331505480888</v>
+        <v>0.10072057586225708</v>
       </c>
       <c r="F10">
-        <v>9.1782996291216447e-05</v>
+        <v>0.00010539662611123409</v>
       </c>
       <c r="G10">
-        <v>0.02876006694591221</v>
+        <v>0.3835201273586939</v>
       </c>
       <c r="H10">
-        <v>0.024127245557698056</v>
+        <v>0.0024652697896308047</v>
       </c>
       <c r="I10">
-        <v>0.0078364749600643765</v>
+        <v>0.0019922848508605122</v>
       </c>
       <c r="J10">
-        <v>0.002319711364021071</v>
+        <v>0.025882436619771337</v>
       </c>
       <c r="K10">
-        <v>0.0124639619543939</v>
+        <v>0.031819621845497928</v>
       </c>
       <c r="L10">
-        <v>0.00041834887183356907</v>
+        <v>0.00022561312695484672</v>
       </c>
       <c r="M10">
-        <v>0.048701662166051408</v>
+        <v>0.0036656652228567216</v>
       </c>
       <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.045823507709515932</v>
+      </c>
+      <c r="C11">
+        <v>0.72972239024247632</v>
+      </c>
+      <c r="D11">
+        <v>0.0018684037525281629</v>
+      </c>
+      <c r="E11">
+        <v>0.10922343551815489</v>
+      </c>
+      <c r="F11">
+        <v>6.7857846070233213e-05</v>
+      </c>
+      <c r="G11">
+        <v>0.075214392176041978</v>
+      </c>
+      <c r="H11">
+        <v>0.0096976473695230027</v>
+      </c>
+      <c r="I11">
+        <v>0.0037860698617300566</v>
+      </c>
+      <c r="J11">
+        <v>0.020159061524324312</v>
+      </c>
+      <c r="K11">
+        <v>0.0014556582602086004</v>
+      </c>
+      <c r="L11">
+        <v>0.00037652787013656836</v>
+      </c>
+      <c r="M11">
+        <v>0.0026050478692900641</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.019872293986644349</v>
+      </c>
+      <c r="C12">
+        <v>0.44965119145770005</v>
+      </c>
+      <c r="D12">
+        <v>0.0044300221082508133</v>
+      </c>
+      <c r="E12">
+        <v>0.054270332038108354</v>
+      </c>
+      <c r="F12">
+        <v>4.3912081574690825e-05</v>
+      </c>
+      <c r="G12">
+        <v>0.38256079164044232</v>
+      </c>
+      <c r="H12">
+        <v>0.0033072229159005306</v>
+      </c>
+      <c r="I12">
+        <v>0.0022484042000748125</v>
+      </c>
+      <c r="J12">
+        <v>0.06314393793350076</v>
+      </c>
+      <c r="K12">
+        <v>0.0185411220482277</v>
+      </c>
+      <c r="L12">
+        <v>0.00044171443381342524</v>
+      </c>
+      <c r="M12">
+        <v>0.0014890551557621829</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.080645297620108539</v>
+      </c>
+      <c r="C13">
+        <v>0.20266908192497204</v>
+      </c>
+      <c r="D13">
+        <v>0.0038066218948646161</v>
+      </c>
+      <c r="E13">
+        <v>0.2761610439464886</v>
+      </c>
+      <c r="F13">
+        <v>0.00040319505621915321</v>
+      </c>
+      <c r="G13">
+        <v>0.36900067712464601</v>
+      </c>
+      <c r="H13">
+        <v>0.0061991747029995917</v>
+      </c>
+      <c r="I13">
+        <v>0.0025184922138149208</v>
+      </c>
+      <c r="J13">
+        <v>0.038916851101763475</v>
+      </c>
+      <c r="K13">
+        <v>0.0067286270788839827</v>
+      </c>
+      <c r="L13">
+        <v>0.00036750280559897411</v>
+      </c>
+      <c r="M13">
+        <v>0.012583434529640227</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.069647001073586803</v>
+      </c>
+      <c r="C14">
+        <v>0.024129582598323165</v>
+      </c>
+      <c r="D14">
+        <v>0.021465450647852585</v>
+      </c>
+      <c r="E14">
+        <v>0.77321940444359338</v>
+      </c>
+      <c r="F14">
+        <v>0.00018430021300444897</v>
+      </c>
+      <c r="G14">
+        <v>0.014497932091597856</v>
+      </c>
+      <c r="H14">
+        <v>0.054555615397668733</v>
+      </c>
+      <c r="I14">
+        <v>0.0075908149779186779</v>
+      </c>
+      <c r="J14">
+        <v>0.0135110929698493</v>
+      </c>
+      <c r="K14">
+        <v>7.3281507492972998e-05</v>
+      </c>
+      <c r="L14">
+        <v>0.00062089241753715443</v>
+      </c>
+      <c r="M14">
+        <v>0.020504631661574745</v>
+      </c>
+      <c r="N14">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.044065687931608165</v>
-      </c>
-      <c r="C11">
-        <v>0.39211886334737389</v>
-      </c>
-      <c r="D11">
-        <v>0.0022194427682103741</v>
-      </c>
-      <c r="E11">
-        <v>0.073568426941971424</v>
-      </c>
-      <c r="F11">
-        <v>4.9611607978596392e-05</v>
-      </c>
-      <c r="G11">
-        <v>0.36095211764447432</v>
-      </c>
-      <c r="H11">
-        <v>0.004084458294678326</v>
-      </c>
-      <c r="I11">
-        <v>0.0047212114088749932</v>
-      </c>
-      <c r="J11">
-        <v>0.0070475394254820127</v>
-      </c>
-      <c r="K11">
-        <v>0.10747030295830021</v>
-      </c>
-      <c r="L11">
-        <v>0.00040892389222465478</v>
-      </c>
-      <c r="M11">
-        <v>0.0032934137788228654</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.078880787370975966</v>
-      </c>
-      <c r="C12">
-        <v>0.16927387110424233</v>
-      </c>
-      <c r="D12">
-        <v>0.0036481907886602976</v>
-      </c>
-      <c r="E12">
-        <v>0.19547858668509072</v>
-      </c>
-      <c r="F12">
-        <v>0.00023350713647033193</v>
-      </c>
-      <c r="G12">
-        <v>0.39269941905432681</v>
-      </c>
-      <c r="H12">
-        <v>0.054155422849134022</v>
-      </c>
-      <c r="I12">
-        <v>0.0068504835198322954</v>
-      </c>
-      <c r="J12">
-        <v>0.031736393408804735</v>
-      </c>
-      <c r="K12">
-        <v>0.057478611362425033</v>
-      </c>
-      <c r="L12">
-        <v>0.00094330701346075345</v>
-      </c>
-      <c r="M12">
-        <v>0.0086214197065770642</v>
-      </c>
-      <c r="N12">
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.028408264184502013</v>
+      </c>
+      <c r="C15">
+        <v>0.55642410395502928</v>
+      </c>
+      <c r="D15">
+        <v>0.01455042029651293</v>
+      </c>
+      <c r="E15">
+        <v>0.047587938914746296</v>
+      </c>
+      <c r="F15">
+        <v>5.6453817629910198e-05</v>
+      </c>
+      <c r="G15">
+        <v>0.29324716301451709</v>
+      </c>
+      <c r="H15">
+        <v>0.018689380687413187</v>
+      </c>
+      <c r="I15">
+        <v>0.0058137574447788536</v>
+      </c>
+      <c r="J15">
+        <v>0.031311673864839268</v>
+      </c>
+      <c r="K15">
+        <v>0.00081819985115178645</v>
+      </c>
+      <c r="L15">
+        <v>0.0011871139037689996</v>
+      </c>
+      <c r="M15">
+        <v>0.00190553006511017</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.017398391830381905</v>
+      </c>
+      <c r="C16">
+        <v>6.2488387451497957e-05</v>
+      </c>
+      <c r="D16">
+        <v>0.93038676475115933</v>
+      </c>
+      <c r="E16">
+        <v>0.0077942786103828571</v>
+      </c>
+      <c r="F16">
+        <v>1.9167050947437659e-05</v>
+      </c>
+      <c r="G16">
+        <v>0.002407145801511329</v>
+      </c>
+      <c r="H16">
+        <v>0.030599314791178819</v>
+      </c>
+      <c r="I16">
+        <v>0.0070425307510301426</v>
+      </c>
+      <c r="J16">
+        <v>0.0028024613334306416</v>
+      </c>
+      <c r="K16">
+        <v>0.00036742836573262696</v>
+      </c>
+      <c r="L16">
+        <v>0.00018000767665486133</v>
+      </c>
+      <c r="M16">
+        <v>0.00094002065013864622</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0.049517895535581745</v>
+      </c>
+      <c r="C17">
+        <v>0.48993569793668512</v>
+      </c>
+      <c r="D17">
+        <v>0.015786269181518955</v>
+      </c>
+      <c r="E17">
+        <v>0.1251928022402761</v>
+      </c>
+      <c r="F17">
+        <v>9.1734899802802715e-05</v>
+      </c>
+      <c r="G17">
+        <v>0.25193177960429791</v>
+      </c>
+      <c r="H17">
+        <v>0.015283378394009541</v>
+      </c>
+      <c r="I17">
+        <v>0.0048779857827131656</v>
+      </c>
+      <c r="J17">
+        <v>0.040292286978829091</v>
+      </c>
+      <c r="K17">
+        <v>0.0035082555321285184</v>
+      </c>
+      <c r="L17">
+        <v>0.0012257546663780856</v>
+      </c>
+      <c r="M17">
+        <v>0.002356159247778788</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.099340730924044829</v>
+      </c>
+      <c r="C18">
+        <v>0.34282092184181961</v>
+      </c>
+      <c r="D18">
+        <v>0.0097886907526173583</v>
+      </c>
+      <c r="E18">
+        <v>0.13692043640785598</v>
+      </c>
+      <c r="F18">
+        <v>0.00014128031316901649</v>
+      </c>
+      <c r="G18">
+        <v>0.36464749491251097</v>
+      </c>
+      <c r="H18">
+        <v>0.007780876274018445</v>
+      </c>
+      <c r="I18">
+        <v>0.0053921012412933272</v>
+      </c>
+      <c r="J18">
+        <v>0.01299516665466445</v>
+      </c>
+      <c r="K18">
+        <v>0.016121447567040967</v>
+      </c>
+      <c r="L18">
+        <v>0.00046389922079406737</v>
+      </c>
+      <c r="M18">
+        <v>0.003586953890171319</v>
+      </c>
+      <c r="N18">
         <v>6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.037867315861728749</v>
-      </c>
-      <c r="C13">
-        <v>0.40989867394400009</v>
-      </c>
-      <c r="D13">
-        <v>0.0018370188916367206</v>
-      </c>
-      <c r="E13">
-        <v>0.10072057586225708</v>
-      </c>
-      <c r="F13">
-        <v>0.00010539662611123409</v>
-      </c>
-      <c r="G13">
-        <v>0.3835201273586939</v>
-      </c>
-      <c r="H13">
-        <v>0.0024652697896308047</v>
-      </c>
-      <c r="I13">
-        <v>0.0019922848508605122</v>
-      </c>
-      <c r="J13">
-        <v>0.025882436619771337</v>
-      </c>
-      <c r="K13">
-        <v>0.031819621845497928</v>
-      </c>
-      <c r="L13">
-        <v>0.00022561312695484672</v>
-      </c>
-      <c r="M13">
-        <v>0.0036656652228567216</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.045823507709515932</v>
-      </c>
-      <c r="C14">
-        <v>0.72972239024247632</v>
-      </c>
-      <c r="D14">
-        <v>0.0018684037525281629</v>
-      </c>
-      <c r="E14">
-        <v>0.10922343551815489</v>
-      </c>
-      <c r="F14">
-        <v>6.7857846070233213e-05</v>
-      </c>
-      <c r="G14">
-        <v>0.075214392176041978</v>
-      </c>
-      <c r="H14">
-        <v>0.0096976473695230027</v>
-      </c>
-      <c r="I14">
-        <v>0.0037860698617300566</v>
-      </c>
-      <c r="J14">
-        <v>0.020159061524324312</v>
-      </c>
-      <c r="K14">
-        <v>0.0014556582602086004</v>
-      </c>
-      <c r="L14">
-        <v>0.00037652787013656836</v>
-      </c>
-      <c r="M14">
-        <v>0.0026050478692900641</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.019872293986644349</v>
-      </c>
-      <c r="C15">
-        <v>0.44965119145770005</v>
-      </c>
-      <c r="D15">
-        <v>0.0044300221082508133</v>
-      </c>
-      <c r="E15">
-        <v>0.054270332038108354</v>
-      </c>
-      <c r="F15">
-        <v>4.3912081574690825e-05</v>
-      </c>
-      <c r="G15">
-        <v>0.38256079164044232</v>
-      </c>
-      <c r="H15">
-        <v>0.0033072229159005306</v>
-      </c>
-      <c r="I15">
-        <v>0.0022484042000748125</v>
-      </c>
-      <c r="J15">
-        <v>0.06314393793350076</v>
-      </c>
-      <c r="K15">
-        <v>0.0185411220482277</v>
-      </c>
-      <c r="L15">
-        <v>0.00044171443381342524</v>
-      </c>
-      <c r="M15">
-        <v>0.0014890551557621829</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.12066224400914809</v>
-      </c>
-      <c r="C16">
-        <v>0.0073718448052414948</v>
-      </c>
-      <c r="D16">
-        <v>0.022454994036344926</v>
-      </c>
-      <c r="E16">
-        <v>0.034426295122617093</v>
-      </c>
-      <c r="F16">
-        <v>0.016153717865159387</v>
-      </c>
-      <c r="G16">
-        <v>0.00027923712552134126</v>
-      </c>
-      <c r="H16">
-        <v>0.028948912993997378</v>
-      </c>
-      <c r="I16">
-        <v>0.70750186871268628</v>
-      </c>
-      <c r="J16">
-        <v>0.0049344855042090345</v>
-      </c>
-      <c r="K16">
-        <v>0.00067040530030931355</v>
-      </c>
-      <c r="L16">
-        <v>0.0040216606960006033</v>
-      </c>
-      <c r="M16">
-        <v>0.052574333828765051</v>
-      </c>
-      <c r="N16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.080645297620108539</v>
-      </c>
-      <c r="C17">
-        <v>0.20266908192497204</v>
-      </c>
-      <c r="D17">
-        <v>0.0038066218948646161</v>
-      </c>
-      <c r="E17">
-        <v>0.2761610439464886</v>
-      </c>
-      <c r="F17">
-        <v>0.00040319505621915321</v>
-      </c>
-      <c r="G17">
-        <v>0.36900067712464601</v>
-      </c>
-      <c r="H17">
-        <v>0.0061991747029995917</v>
-      </c>
-      <c r="I17">
-        <v>0.0025184922138149208</v>
-      </c>
-      <c r="J17">
-        <v>0.038916851101763475</v>
-      </c>
-      <c r="K17">
-        <v>0.0067286270788839827</v>
-      </c>
-      <c r="L17">
-        <v>0.00036750280559897411</v>
-      </c>
-      <c r="M17">
-        <v>0.012583434529640227</v>
-      </c>
-      <c r="N17">
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.015242429990801758</v>
+      </c>
+      <c r="C19">
+        <v>0.4025328877124037</v>
+      </c>
+      <c r="D19">
+        <v>0.00084870760430600539</v>
+      </c>
+      <c r="E19">
+        <v>0.038270196442546624</v>
+      </c>
+      <c r="F19">
+        <v>3.8655950923257144e-05</v>
+      </c>
+      <c r="G19">
+        <v>0.52010168303860538</v>
+      </c>
+      <c r="H19">
+        <v>0.012621823009926248</v>
+      </c>
+      <c r="I19">
+        <v>0.0007934372798102761</v>
+      </c>
+      <c r="J19">
+        <v>0.0076520912366514395</v>
+      </c>
+      <c r="K19">
+        <v>0.00030021319196434272</v>
+      </c>
+      <c r="L19">
+        <v>0.00022592121890992352</v>
+      </c>
+      <c r="M19">
+        <v>0.0013719533231511612</v>
+      </c>
+      <c r="N19">
         <v>6</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.069647001073586803</v>
-      </c>
-      <c r="C18">
-        <v>0.024129582598323165</v>
-      </c>
-      <c r="D18">
-        <v>0.021465450647852585</v>
-      </c>
-      <c r="E18">
-        <v>0.77321940444359338</v>
-      </c>
-      <c r="F18">
-        <v>0.00018430021300444897</v>
-      </c>
-      <c r="G18">
-        <v>0.014497932091597856</v>
-      </c>
-      <c r="H18">
-        <v>0.054555615397668733</v>
-      </c>
-      <c r="I18">
-        <v>0.0075908149779186779</v>
-      </c>
-      <c r="J18">
-        <v>0.0135110929698493</v>
-      </c>
-      <c r="K18">
-        <v>7.3281507492972998e-05</v>
-      </c>
-      <c r="L18">
-        <v>0.00062089241753715443</v>
-      </c>
-      <c r="M18">
-        <v>0.020504631661574745</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.028408264184502013</v>
-      </c>
-      <c r="C19">
-        <v>0.55642410395502928</v>
-      </c>
-      <c r="D19">
-        <v>0.01455042029651293</v>
-      </c>
-      <c r="E19">
-        <v>0.047587938914746296</v>
-      </c>
-      <c r="F19">
-        <v>5.6453817629910198e-05</v>
-      </c>
-      <c r="G19">
-        <v>0.29324716301451709</v>
-      </c>
-      <c r="H19">
-        <v>0.018689380687413187</v>
-      </c>
-      <c r="I19">
-        <v>0.0058137574447788536</v>
-      </c>
-      <c r="J19">
-        <v>0.031311673864839268</v>
-      </c>
-      <c r="K19">
-        <v>0.00081819985115178645</v>
-      </c>
-      <c r="L19">
-        <v>0.0011871139037689996</v>
-      </c>
-      <c r="M19">
-        <v>0.00190553006511017</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-    </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.021974994268828506</v>
+        <v>0.02114639018342673</v>
       </c>
       <c r="C20">
-        <v>0.0012348579098792288</v>
+        <v>0.61909367561904305</v>
       </c>
       <c r="D20">
-        <v>5.4601120338999492e-06</v>
+        <v>0.00076267815440670458</v>
       </c>
       <c r="E20">
-        <v>0.0008737111285537281</v>
+        <v>0.14099148530675704</v>
       </c>
       <c r="F20">
-        <v>0.9707575669637033</v>
+        <v>6.0307379444804113e-05</v>
       </c>
       <c r="G20">
-        <v>0.00018312874950225595</v>
+        <v>0.16806660513046648</v>
       </c>
       <c r="H20">
-        <v>5.4287538389436173e-05</v>
+        <v>0.0088995621154720136</v>
       </c>
       <c r="I20">
-        <v>0.0038022870083095411</v>
+        <v>0.0012636218604006907</v>
       </c>
       <c r="J20">
-        <v>1.568117102449915e-06</v>
+        <v>0.036128897410381985</v>
       </c>
       <c r="K20">
-        <v>6.0636812229681489e-05</v>
+        <v>0.00041642394933259308</v>
       </c>
       <c r="L20">
-        <v>4.5349715496436068e-05</v>
+        <v>0.00032781226286473028</v>
       </c>
       <c r="M20">
-        <v>0.0010061516759715791</v>
+        <v>0.0028425406280030707</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.017398391830381905</v>
+        <v>0.020665786395126853</v>
       </c>
       <c r="C21">
-        <v>6.2488387451497957e-05</v>
+        <v>0.00020849812735995339</v>
       </c>
       <c r="D21">
-        <v>0.93038676475115933</v>
+        <v>0.8822398647764943</v>
       </c>
       <c r="E21">
-        <v>0.0077942786103828571</v>
+        <v>0.067306223612856084</v>
       </c>
       <c r="F21">
-        <v>1.9167050947437659e-05</v>
+        <v>4.9243784195763741e-05</v>
       </c>
       <c r="G21">
-        <v>0.002407145801511329</v>
+        <v>0.013267508216712088</v>
       </c>
       <c r="H21">
-        <v>0.030599314791178819</v>
+        <v>0.0085195051187864444</v>
       </c>
       <c r="I21">
-        <v>0.0070425307510301426</v>
+        <v>0.0021038135670681654</v>
       </c>
       <c r="J21">
-        <v>0.0028024613334306416</v>
+        <v>0.0050582197364467587</v>
       </c>
       <c r="K21">
-        <v>0.00036742836573262696</v>
+        <v>2.9728984659900911e-06</v>
       </c>
       <c r="L21">
-        <v>0.00018000767665486133</v>
+        <v>0.00012692128225130347</v>
       </c>
       <c r="M21">
-        <v>0.00094002065013864622</v>
+        <v>0.00045144248423613093</v>
       </c>
       <c r="N21">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.049517895535581745</v>
+        <v>0.024616607856117061</v>
       </c>
       <c r="C22">
-        <v>0.48993569793668512</v>
+        <v>0.64537854425589669</v>
       </c>
       <c r="D22">
-        <v>0.015786269181518955</v>
+        <v>0.0011019673308086428</v>
       </c>
       <c r="E22">
-        <v>0.1251928022402761</v>
+        <v>0.093549386016885228</v>
       </c>
       <c r="F22">
-        <v>9.1734899802802715e-05</v>
+        <v>5.8906683538117968e-05</v>
       </c>
       <c r="G22">
-        <v>0.25193177960429791</v>
+        <v>0.20146276164571597</v>
       </c>
       <c r="H22">
-        <v>0.015283378394009541</v>
+        <v>0.0031258729191040689</v>
       </c>
       <c r="I22">
-        <v>0.0048779857827131656</v>
+        <v>0.0016427660691711614</v>
       </c>
       <c r="J22">
-        <v>0.040292286978829091</v>
+        <v>0.023433659180033078</v>
       </c>
       <c r="K22">
-        <v>0.0035082555321285184</v>
+        <v>0.0038057595654672678</v>
       </c>
       <c r="L22">
-        <v>0.0012257546663780856</v>
+        <v>0.0002780095695308659</v>
       </c>
       <c r="M22">
-        <v>0.002356159247778788</v>
+        <v>0.0015457589077316647</v>
       </c>
       <c r="N22">
         <v>2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.010542969459020028</v>
+        <v>0.061798185126075003</v>
       </c>
       <c r="C23">
-        <v>0.004191769320169546</v>
+        <v>0.52376101119486929</v>
       </c>
       <c r="D23">
-        <v>2.7877418390044254e-07</v>
+        <v>0.010710580729872823</v>
       </c>
       <c r="E23">
-        <v>0.00029806234557923854</v>
+        <v>0.11342584640063291</v>
       </c>
       <c r="F23">
-        <v>0.98268334351221243</v>
+        <v>0.00011858193415105704</v>
       </c>
       <c r="G23">
-        <v>9.8594616787458589e-05</v>
+        <v>0.15293535053541754</v>
       </c>
       <c r="H23">
-        <v>1.2831277198554369e-06</v>
+        <v>0.033421956455548921</v>
       </c>
       <c r="I23">
-        <v>0.0013370952948540248</v>
+        <v>0.0049875843917277334</v>
       </c>
       <c r="J23">
-        <v>8.6895979716914885e-08</v>
+        <v>0.091552389403152037</v>
       </c>
       <c r="K23">
-        <v>6.2290773203582759e-05</v>
+        <v>0.0031361394254334879</v>
       </c>
       <c r="L23">
-        <v>1.5636866555601676e-05</v>
+        <v>0.0014451577620435887</v>
       </c>
       <c r="M23">
-        <v>0.00076858901373457302</v>
+        <v>0.0027072166410755049</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.099340730924044829</v>
+        <v>0.017353852605052032</v>
       </c>
       <c r="C24">
-        <v>0.34282092184181961</v>
+        <v>0.00010470713296427032</v>
       </c>
       <c r="D24">
-        <v>0.0097886907526173583</v>
+        <v>0.92502024442801711</v>
       </c>
       <c r="E24">
-        <v>0.13692043640785598</v>
+        <v>0.036245124531867789</v>
       </c>
       <c r="F24">
-        <v>0.00014128031316901649</v>
+        <v>4.4902538189555589e-05</v>
       </c>
       <c r="G24">
-        <v>0.36464749491251097</v>
+        <v>0.0039906259535251861</v>
       </c>
       <c r="H24">
-        <v>0.007780876274018445</v>
+        <v>0.013153803452547666</v>
       </c>
       <c r="I24">
-        <v>0.0053921012412933272</v>
+        <v>0.0012504477359195885</v>
       </c>
       <c r="J24">
-        <v>0.01299516665466445</v>
+        <v>0.0010656463981133326</v>
       </c>
       <c r="K24">
-        <v>0.016121447567040967</v>
+        <v>0.00060552069018583201</v>
       </c>
       <c r="L24">
-        <v>0.00046389922079406737</v>
+        <v>5.4846042303347142e-05</v>
       </c>
       <c r="M24">
-        <v>0.003586953890171319</v>
+        <v>0.0011102784913144877</v>
       </c>
       <c r="N24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.015242429990801758</v>
+        <v>0.055242778526636747</v>
       </c>
       <c r="C25">
-        <v>0.4025328877124037</v>
+        <v>0.44976291534771085</v>
       </c>
       <c r="D25">
-        <v>0.00084870760430600539</v>
+        <v>0.0066635708257852533</v>
       </c>
       <c r="E25">
-        <v>0.038270196442546624</v>
+        <v>0.12622128451148898</v>
       </c>
       <c r="F25">
-        <v>3.8655950923257144e-05</v>
+        <v>0.0001231127474833868</v>
       </c>
       <c r="G25">
-        <v>0.52010168303860538</v>
+        <v>0.30729356435256572</v>
       </c>
       <c r="H25">
-        <v>0.012621823009926248</v>
+        <v>0.0077993969919135063</v>
       </c>
       <c r="I25">
-        <v>0.0007934372798102761</v>
+        <v>0.0029129368079245867</v>
       </c>
       <c r="J25">
-        <v>0.0076520912366514395</v>
+        <v>0.035319987848980598</v>
       </c>
       <c r="K25">
-        <v>0.00030021319196434272</v>
+        <v>0.0041413407892887857</v>
       </c>
       <c r="L25">
-        <v>0.00022592121890992352</v>
+        <v>0.00055370537146256734</v>
       </c>
       <c r="M25">
-        <v>0.0013719533231511612</v>
+        <v>0.0039654058787589579</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02114639018342673</v>
+        <v>0.026603258752173356</v>
       </c>
       <c r="C26">
-        <v>0.61909367561904305</v>
+        <v>0.65541361890688299</v>
       </c>
       <c r="D26">
-        <v>0.00076267815440670458</v>
+        <v>0.011324702221035196</v>
       </c>
       <c r="E26">
-        <v>0.14099148530675704</v>
+        <v>0.095379439082680123</v>
       </c>
       <c r="F26">
-        <v>6.0307379444804113e-05</v>
+        <v>5.2663903249899687e-05</v>
       </c>
       <c r="G26">
-        <v>0.16806660513046648</v>
+        <v>0.093651484428952839</v>
       </c>
       <c r="H26">
-        <v>0.0088995621154720136</v>
+        <v>0.015820400380834147</v>
       </c>
       <c r="I26">
-        <v>0.0012636218604006907</v>
+        <v>0.010141987905534436</v>
       </c>
       <c r="J26">
-        <v>0.036128897410381985</v>
+        <v>0.083574109679101852</v>
       </c>
       <c r="K26">
-        <v>0.00041642394933259308</v>
+        <v>0.0014213386611303255</v>
       </c>
       <c r="L26">
-        <v>0.00032781226286473028</v>
+        <v>0.0028209700882943444</v>
       </c>
       <c r="M26">
-        <v>0.0028425406280030707</v>
+        <v>0.0037960259901304565</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.020665786395126853</v>
+        <v>0.015812777721028581</v>
       </c>
       <c r="C27">
-        <v>0.00020849812735995339</v>
+        <v>0.00047335306796334202</v>
       </c>
       <c r="D27">
-        <v>0.8822398647764943</v>
+        <v>0.85963125946582997</v>
       </c>
       <c r="E27">
-        <v>0.067306223612856084</v>
+        <v>0.039317876866062328</v>
       </c>
       <c r="F27">
-        <v>4.9243784195763741e-05</v>
+        <v>3.1240253503735452e-05</v>
       </c>
       <c r="G27">
-        <v>0.013267508216712088</v>
+        <v>0.059361716080784603</v>
       </c>
       <c r="H27">
-        <v>0.0085195051187864444</v>
+        <v>0.0174707768768687</v>
       </c>
       <c r="I27">
-        <v>0.0021038135670681654</v>
+        <v>0.0045071816121596102</v>
       </c>
       <c r="J27">
-        <v>0.0050582197364467587</v>
+        <v>0.0014443819911796436</v>
       </c>
       <c r="K27">
-        <v>2.9728984659900911e-06</v>
+        <v>0.00059284019944415018</v>
       </c>
       <c r="L27">
-        <v>0.00012692128225130347</v>
+        <v>9.0085825285852206e-05</v>
       </c>
       <c r="M27">
-        <v>0.00045144248423613093</v>
+        <v>0.0012665100398895253</v>
       </c>
       <c r="N27">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.024616607856117061</v>
+        <v>0.012364029757856016</v>
       </c>
       <c r="C28">
-        <v>0.64537854425589669</v>
+        <v>1.0186043045268407e-05</v>
       </c>
       <c r="D28">
-        <v>0.0011019673308086428</v>
+        <v>0.94162845359433966</v>
       </c>
       <c r="E28">
-        <v>0.093549386016885228</v>
+        <v>0.0038622379628518565</v>
       </c>
       <c r="F28">
-        <v>5.8906683538117968e-05</v>
+        <v>2.1033942678710987e-05</v>
       </c>
       <c r="G28">
-        <v>0.20146276164571597</v>
+        <v>0.0061474915900162561</v>
       </c>
       <c r="H28">
-        <v>0.0031258729191040689</v>
+        <v>0.025078536607847032</v>
       </c>
       <c r="I28">
-        <v>0.0016427660691711614</v>
+        <v>0.0080567006371741069</v>
       </c>
       <c r="J28">
-        <v>0.023433659180033078</v>
+        <v>0.0024752086897175487</v>
       </c>
       <c r="K28">
-        <v>0.0038057595654672678</v>
+        <v>2.3115396070565412e-05</v>
       </c>
       <c r="L28">
-        <v>0.0002780095695308659</v>
+        <v>9.6939984205741186e-05</v>
       </c>
       <c r="M28">
-        <v>0.0015457589077316647</v>
+        <v>0.00023606579419710295</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.061798185126075003</v>
+        <v>0.056447156054242859</v>
       </c>
       <c r="C29">
-        <v>0.52376101119486929</v>
+        <v>0.47301506048040487</v>
       </c>
       <c r="D29">
-        <v>0.010710580729872823</v>
+        <v>0.04917229901001418</v>
       </c>
       <c r="E29">
-        <v>0.11342584640063291</v>
+        <v>0.2033087888908032</v>
       </c>
       <c r="F29">
-        <v>0.00011858193415105704</v>
+        <v>0.00013354088170708625</v>
       </c>
       <c r="G29">
-        <v>0.15293535053541754</v>
+        <v>0.085478307100626968</v>
       </c>
       <c r="H29">
-        <v>0.033421956455548921</v>
+        <v>0.018360187064139697</v>
       </c>
       <c r="I29">
-        <v>0.0049875843917277334</v>
+        <v>0.0083254889450045059</v>
       </c>
       <c r="J29">
-        <v>0.091552389403152037</v>
+        <v>0.094331556932676724</v>
       </c>
       <c r="K29">
-        <v>0.0031361394254334879</v>
+        <v>0.0026239017762606162</v>
       </c>
       <c r="L29">
-        <v>0.0014451577620435887</v>
+        <v>0.002191722963155656</v>
       </c>
       <c r="M29">
-        <v>0.0027072166410755049</v>
+        <v>0.0066119899009637302</v>
       </c>
       <c r="N29">
         <v>2</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.017353852605052032</v>
+        <v>0.059584218361257539</v>
       </c>
       <c r="C30">
-        <v>0.00010470713296427032</v>
+        <v>0.48551280325379326</v>
       </c>
       <c r="D30">
-        <v>0.92502024442801711</v>
+        <v>0.015842074974687471</v>
       </c>
       <c r="E30">
-        <v>0.036245124531867789</v>
+        <v>0.10473945909952734</v>
       </c>
       <c r="F30">
-        <v>4.4902538189555589e-05</v>
+        <v>0.00011090847238705474</v>
       </c>
       <c r="G30">
-        <v>0.0039906259535251861</v>
+        <v>0.23149785094364805</v>
       </c>
       <c r="H30">
-        <v>0.013153803452547666</v>
+        <v>0.011637136151003634</v>
       </c>
       <c r="I30">
-        <v>0.0012504477359195885</v>
+        <v>0.0059328142120635401</v>
       </c>
       <c r="J30">
-        <v>0.0010656463981133326</v>
+        <v>0.07856943342393595</v>
       </c>
       <c r="K30">
-        <v>0.00060552069018583201</v>
+        <v>0.0015528741305499963</v>
       </c>
       <c r="L30">
-        <v>5.4846042303347142e-05</v>
+        <v>0.0011548026849072736</v>
       </c>
       <c r="M30">
-        <v>0.0011102784913144877</v>
+        <v>0.0038656242922388358</v>
       </c>
       <c r="N30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0.037947238353309605</v>
+      </c>
+      <c r="C31">
+        <v>0.65560464932934659</v>
+      </c>
+      <c r="D31">
+        <v>0.0053622932000759217</v>
+      </c>
+      <c r="E31">
+        <v>0.08860316796095194</v>
+      </c>
+      <c r="F31">
+        <v>5.6794892583167743e-05</v>
+      </c>
+      <c r="G31">
+        <v>0.17474558067891921</v>
+      </c>
+      <c r="H31">
+        <v>0.0074521289600497113</v>
+      </c>
+      <c r="I31">
+        <v>0.0032660269505376707</v>
+      </c>
+      <c r="J31">
+        <v>0.0045219587106999116</v>
+      </c>
+      <c r="K31">
+        <v>0.019473194290927271</v>
+      </c>
+      <c r="L31">
+        <v>0.0005671269593186094</v>
+      </c>
+      <c r="M31">
+        <v>0.0023998397132806043</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>0.025499421725834921</v>
+      </c>
+      <c r="C32">
+        <v>0.00013341692723397027</v>
+      </c>
+      <c r="D32">
+        <v>0.91753252534848928</v>
+      </c>
+      <c r="E32">
+        <v>0.010152238584174252</v>
+      </c>
+      <c r="F32">
+        <v>2.2978933033505315e-05</v>
+      </c>
+      <c r="G32">
+        <v>0.0025234609548178133</v>
+      </c>
+      <c r="H32">
+        <v>0.023980123288368488</v>
+      </c>
+      <c r="I32">
+        <v>0.011702203542027043</v>
+      </c>
+      <c r="J32">
+        <v>0.0053564250996525316</v>
+      </c>
+      <c r="K32">
+        <v>2.7351730454120279e-05</v>
+      </c>
+      <c r="L32">
+        <v>0.00030091299089113929</v>
+      </c>
+      <c r="M32">
+        <v>0.002768940875022898</v>
+      </c>
+      <c r="N32">
         <v>3</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0.02550170106790689</v>
-      </c>
-      <c r="C31">
-        <v>0.0022698296614141601</v>
-      </c>
-      <c r="D31">
-        <v>4.888747412076249e-06</v>
-      </c>
-      <c r="E31">
-        <v>0.0018200128308868779</v>
-      </c>
-      <c r="F31">
-        <v>0.95005180640813991</v>
-      </c>
-      <c r="G31">
-        <v>6.5966091748932362e-06</v>
-      </c>
-      <c r="H31">
-        <v>7.4395221220712425e-05</v>
-      </c>
-      <c r="I31">
-        <v>0.019256250072769775</v>
-      </c>
-      <c r="J31">
-        <v>2.7642403351805421e-06</v>
-      </c>
-      <c r="K31">
-        <v>1.6880850161173774e-05</v>
-      </c>
-      <c r="L31">
-        <v>0.00018429146678505877</v>
-      </c>
-      <c r="M31">
-        <v>0.00081058282379324771</v>
-      </c>
-      <c r="N31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0.055242778526636747</v>
-      </c>
-      <c r="C32">
-        <v>0.44976291534771085</v>
-      </c>
-      <c r="D32">
-        <v>0.0066635708257852533</v>
-      </c>
-      <c r="E32">
-        <v>0.12622128451148898</v>
-      </c>
-      <c r="F32">
-        <v>0.0001231127474833868</v>
-      </c>
-      <c r="G32">
-        <v>0.30729356435256572</v>
-      </c>
-      <c r="H32">
-        <v>0.0077993969919135063</v>
-      </c>
-      <c r="I32">
-        <v>0.0029129368079245867</v>
-      </c>
-      <c r="J32">
-        <v>0.035319987848980598</v>
-      </c>
-      <c r="K32">
-        <v>0.0041413407892887857</v>
-      </c>
-      <c r="L32">
-        <v>0.00055370537146256734</v>
-      </c>
-      <c r="M32">
-        <v>0.0039654058787589579</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-    </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.026603258752173356</v>
+        <v>0.078054474855485806</v>
       </c>
       <c r="C33">
-        <v>0.65541361890688299</v>
+        <v>0.015655763096251132</v>
       </c>
       <c r="D33">
-        <v>0.011324702221035196</v>
+        <v>0.037204663804790372</v>
       </c>
       <c r="E33">
-        <v>0.095379439082680123</v>
+        <v>0.73330300910619772</v>
       </c>
       <c r="F33">
-        <v>5.2663903249899687e-05</v>
+        <v>0.00019498738671068315</v>
       </c>
       <c r="G33">
-        <v>0.093651484428952839</v>
+        <v>0.010227981761573048</v>
       </c>
       <c r="H33">
-        <v>0.015820400380834147</v>
+        <v>0.034765463214641912</v>
       </c>
       <c r="I33">
-        <v>0.010141987905534436</v>
+        <v>0.013546289558542065</v>
       </c>
       <c r="J33">
-        <v>0.083574109679101852</v>
+        <v>0.013411504366115507</v>
       </c>
       <c r="K33">
-        <v>0.0014213386611303255</v>
+        <v>0.0018811555354103502</v>
       </c>
       <c r="L33">
-        <v>0.0028209700882943444</v>
+        <v>0.00067486076249739162</v>
       </c>
       <c r="M33">
-        <v>0.0037960259901304565</v>
+        <v>0.061079846551783973</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.025079493661798111</v>
+        <v>0.037163976267526357</v>
       </c>
       <c r="C34">
-        <v>0.0092645850541793074</v>
+        <v>0.5784929850291225</v>
       </c>
       <c r="D34">
-        <v>3.514036265368034e-06</v>
+        <v>0.0033677544134388224</v>
       </c>
       <c r="E34">
-        <v>0.0008976703463604961</v>
+        <v>0.074441817307743727</v>
       </c>
       <c r="F34">
-        <v>0.9589120397741645</v>
+        <v>6.0282011464949808e-05</v>
       </c>
       <c r="G34">
-        <v>7.5345357276785188e-05</v>
+        <v>0.25990053864342505</v>
       </c>
       <c r="H34">
-        <v>6.1135555602965115e-05</v>
+        <v>0.0083607513758286629</v>
       </c>
       <c r="I34">
-        <v>0.0048273994505720081</v>
+        <v>0.0042303470714308983</v>
       </c>
       <c r="J34">
-        <v>2.188077981230445e-06</v>
+        <v>0.027944084126764555</v>
       </c>
       <c r="K34">
-        <v>0.0001250678894828869</v>
+        <v>0.0036941558445731811</v>
       </c>
       <c r="L34">
-        <v>0.00011922001071632689</v>
+        <v>0.0005640489427399827</v>
       </c>
       <c r="M34">
-        <v>0.0006323407855999653</v>
+        <v>0.001779258965941336</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.015812777721028581</v>
+        <v>0.03600164672109385</v>
       </c>
       <c r="C35">
-        <v>0.00047335306796334202</v>
+        <v>0.00031287671879197339</v>
       </c>
       <c r="D35">
-        <v>0.85963125946582997</v>
+        <v>0.88296033571444665</v>
       </c>
       <c r="E35">
-        <v>0.039317876866062328</v>
+        <v>0.051856699662611541</v>
       </c>
       <c r="F35">
-        <v>3.1240253503735452e-05</v>
+        <v>7.5558314758641484e-05</v>
       </c>
       <c r="G35">
-        <v>0.059361716080784603</v>
+        <v>0.009131259362008837</v>
       </c>
       <c r="H35">
-        <v>0.0174707768768687</v>
+        <v>0.013588181995289871</v>
       </c>
       <c r="I35">
-        <v>0.0045071816121596102</v>
+        <v>0.0018042340318786764</v>
       </c>
       <c r="J35">
-        <v>0.0014443819911796436</v>
+        <v>0.0025335675020499498</v>
       </c>
       <c r="K35">
-        <v>0.00059284019944415018</v>
+        <v>0.00017967231161405934</v>
       </c>
       <c r="L35">
-        <v>9.0085825285852206e-05</v>
+        <v>9.2403958472497052e-05</v>
       </c>
       <c r="M35">
-        <v>0.0012665100398895253</v>
+        <v>0.0014635637069836506</v>
       </c>
       <c r="N35">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.012364029757856016</v>
+        <v>0.038776887525047286</v>
       </c>
       <c r="C36">
-        <v>1.0186043045268407e-05</v>
+        <v>0.50623035134384686</v>
       </c>
       <c r="D36">
-        <v>0.94162845359433966</v>
+        <v>0.0011899659276765901</v>
       </c>
       <c r="E36">
-        <v>0.0038622379628518565</v>
+        <v>0.15607596656141576</v>
       </c>
       <c r="F36">
-        <v>2.1033942678710987e-05</v>
+        <v>8.0117402717023268e-05</v>
       </c>
       <c r="G36">
-        <v>0.0061474915900162561</v>
+        <v>0.22289282399060104</v>
       </c>
       <c r="H36">
-        <v>0.025078536607847032</v>
+        <v>0.010579338796291162</v>
       </c>
       <c r="I36">
-        <v>0.0080567006371741069</v>
+        <v>0.0024939461321038044</v>
       </c>
       <c r="J36">
-        <v>0.0024752086897175487</v>
+        <v>0.004463373221258264</v>
       </c>
       <c r="K36">
-        <v>2.3115396070565412e-05</v>
+        <v>0.053452049604154582</v>
       </c>
       <c r="L36">
-        <v>9.6939984205741186e-05</v>
+        <v>0.0003123166364952115</v>
       </c>
       <c r="M36">
-        <v>0.00023606579419710295</v>
+        <v>0.003452862858392516</v>
       </c>
       <c r="N36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>0.086615645825703733</v>
+      </c>
+      <c r="C37">
+        <v>0.35228432457632436</v>
+      </c>
+      <c r="D37">
+        <v>0.023317803769868153</v>
+      </c>
+      <c r="E37">
+        <v>0.10056914950968697</v>
+      </c>
+      <c r="F37">
+        <v>0.00015497115553507302</v>
+      </c>
+      <c r="G37">
+        <v>0.16831782246358776</v>
+      </c>
+      <c r="H37">
+        <v>0.012631116500205222</v>
+      </c>
+      <c r="I37">
+        <v>0.0060531624331231597</v>
+      </c>
+      <c r="J37">
+        <v>0.051065227804748294</v>
+      </c>
+      <c r="K37">
+        <v>0.19510218836587659</v>
+      </c>
+      <c r="L37">
+        <v>0.00072319426179450115</v>
+      </c>
+      <c r="M37">
+        <v>0.0031653933335463748</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>0.019220828925528229</v>
+      </c>
+      <c r="C38">
+        <v>0.57306868223059604</v>
+      </c>
+      <c r="D38">
+        <v>0.0056554946742700205</v>
+      </c>
+      <c r="E38">
+        <v>0.097189975957108501</v>
+      </c>
+      <c r="F38">
+        <v>3.5578035403883259e-05</v>
+      </c>
+      <c r="G38">
+        <v>0.27332411195770173</v>
+      </c>
+      <c r="H38">
+        <v>0.0069535685995349211</v>
+      </c>
+      <c r="I38">
+        <v>0.0027442750738093324</v>
+      </c>
+      <c r="J38">
+        <v>0.0027860556643610796</v>
+      </c>
+      <c r="K38">
+        <v>0.015773928571834947</v>
+      </c>
+      <c r="L38">
+        <v>0.00060790215196289703</v>
+      </c>
+      <c r="M38">
+        <v>0.0026395981578882948</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.058575294777324836</v>
+      </c>
+      <c r="C39">
+        <v>0.43135946269756476</v>
+      </c>
+      <c r="D39">
+        <v>0.012972880748760468</v>
+      </c>
+      <c r="E39">
+        <v>0.13712976501087279</v>
+      </c>
+      <c r="F39">
+        <v>9.3107601032718347e-05</v>
+      </c>
+      <c r="G39">
+        <v>0.3270095433944824</v>
+      </c>
+      <c r="H39">
+        <v>0.0039615055407701411</v>
+      </c>
+      <c r="I39">
+        <v>0.0036201337769080919</v>
+      </c>
+      <c r="J39">
+        <v>0.0014612360670052782</v>
+      </c>
+      <c r="K39">
+        <v>0.022061406859567406</v>
+      </c>
+      <c r="L39">
+        <v>0.00031550509593163551</v>
+      </c>
+      <c r="M39">
+        <v>0.0014401584297792918</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>0.023004942940472627</v>
+      </c>
+      <c r="C40">
+        <v>2.1548249832897694e-05</v>
+      </c>
+      <c r="D40">
+        <v>0.93005426788653833</v>
+      </c>
+      <c r="E40">
+        <v>0.012188228617542332</v>
+      </c>
+      <c r="F40">
+        <v>2.4611971809295988e-05</v>
+      </c>
+      <c r="G40">
+        <v>0.00099728178326666359</v>
+      </c>
+      <c r="H40">
+        <v>0.023728258165702211</v>
+      </c>
+      <c r="I40">
+        <v>0.0062996114285754469</v>
+      </c>
+      <c r="J40">
+        <v>0.0022852800081681383</v>
+      </c>
+      <c r="K40">
+        <v>2.3843482277666708e-05</v>
+      </c>
+      <c r="L40">
+        <v>8.3230558777678995e-05</v>
+      </c>
+      <c r="M40">
+        <v>0.0012888949070366685</v>
+      </c>
+      <c r="N40">
         <v>3</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0.056447156054242859</v>
-      </c>
-      <c r="C37">
-        <v>0.47301506048040487</v>
-      </c>
-      <c r="D37">
-        <v>0.04917229901001418</v>
-      </c>
-      <c r="E37">
-        <v>0.2033087888908032</v>
-      </c>
-      <c r="F37">
-        <v>0.00013354088170708625</v>
-      </c>
-      <c r="G37">
-        <v>0.085478307100626968</v>
-      </c>
-      <c r="H37">
-        <v>0.018360187064139697</v>
-      </c>
-      <c r="I37">
-        <v>0.0083254889450045059</v>
-      </c>
-      <c r="J37">
-        <v>0.094331556932676724</v>
-      </c>
-      <c r="K37">
-        <v>0.0026239017762606162</v>
-      </c>
-      <c r="L37">
-        <v>0.002191722963155656</v>
-      </c>
-      <c r="M37">
-        <v>0.0066119899009637302</v>
-      </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0.059584218361257539</v>
-      </c>
-      <c r="C38">
-        <v>0.48551280325379326</v>
-      </c>
-      <c r="D38">
-        <v>0.015842074974687471</v>
-      </c>
-      <c r="E38">
-        <v>0.10473945909952734</v>
-      </c>
-      <c r="F38">
-        <v>0.00011090847238705474</v>
-      </c>
-      <c r="G38">
-        <v>0.23149785094364805</v>
-      </c>
-      <c r="H38">
-        <v>0.011637136151003634</v>
-      </c>
-      <c r="I38">
-        <v>0.0059328142120635401</v>
-      </c>
-      <c r="J38">
-        <v>0.07856943342393595</v>
-      </c>
-      <c r="K38">
-        <v>0.0015528741305499963</v>
-      </c>
-      <c r="L38">
-        <v>0.0011548026849072736</v>
-      </c>
-      <c r="M38">
-        <v>0.0038656242922388358</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0.0271507699108407</v>
-      </c>
-      <c r="C39">
-        <v>0.0063549825321594514</v>
-      </c>
-      <c r="D39">
-        <v>3.6752279113901443e-06</v>
-      </c>
-      <c r="E39">
-        <v>0.00188049317178536</v>
-      </c>
-      <c r="F39">
-        <v>0.94333787321512952</v>
-      </c>
-      <c r="G39">
-        <v>1.029749967560076e-05</v>
-      </c>
-      <c r="H39">
-        <v>3.9052242830021863e-05</v>
-      </c>
-      <c r="I39">
-        <v>0.019271302969545191</v>
-      </c>
-      <c r="J39">
-        <v>1.8883202943840743e-06</v>
-      </c>
-      <c r="K39">
-        <v>2.3360129855722332e-05</v>
-      </c>
-      <c r="L39">
-        <v>0.0001282298466985255</v>
-      </c>
-      <c r="M39">
-        <v>0.0017980749332740611</v>
-      </c>
-      <c r="N39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0.037947238353309605</v>
-      </c>
-      <c r="C40">
-        <v>0.65560464932934659</v>
-      </c>
-      <c r="D40">
-        <v>0.0053622932000759217</v>
-      </c>
-      <c r="E40">
-        <v>0.08860316796095194</v>
-      </c>
-      <c r="F40">
-        <v>5.6794892583167743e-05</v>
-      </c>
-      <c r="G40">
-        <v>0.17474558067891921</v>
-      </c>
-      <c r="H40">
-        <v>0.0074521289600497113</v>
-      </c>
-      <c r="I40">
-        <v>0.0032660269505376707</v>
-      </c>
-      <c r="J40">
-        <v>0.0045219587106999116</v>
-      </c>
-      <c r="K40">
-        <v>0.019473194290927271</v>
-      </c>
-      <c r="L40">
-        <v>0.0005671269593186094</v>
-      </c>
-      <c r="M40">
-        <v>0.0023998397132806043</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-    </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B41">
-        <v>0.026787394098371609</v>
+        <v>0.11584341632020784</v>
       </c>
       <c r="C41">
-        <v>0.0074867425598155899</v>
+        <v>0.048132060601914467</v>
       </c>
       <c r="D41">
-        <v>3.6556027370136295e-06</v>
+        <v>0.043493390405769321</v>
       </c>
       <c r="E41">
-        <v>0.0013746202460476152</v>
+        <v>0.69536490700921183</v>
       </c>
       <c r="F41">
-        <v>0.95829760060571545</v>
+        <v>0.00025925098254596911</v>
       </c>
       <c r="G41">
-        <v>1.9606471853836228e-05</v>
+        <v>0.051172049590209538</v>
       </c>
       <c r="H41">
-        <v>2.2485332705757661e-05</v>
+        <v>0.012319679692196113</v>
       </c>
       <c r="I41">
-        <v>0.0039799525167674016</v>
+        <v>0.0061476574041690601</v>
       </c>
       <c r="J41">
-        <v>1.0456324048443083e-06</v>
+        <v>0.0028849279101616754</v>
       </c>
       <c r="K41">
-        <v>4.8725495232214719e-05</v>
+        <v>0.0050189679234955934</v>
       </c>
       <c r="L41">
-        <v>4.3405142162705241e-05</v>
+        <v>0.00047592034457733494</v>
       </c>
       <c r="M41">
-        <v>0.0019347662961860114</v>
+        <v>0.01888777181554116</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>0.015548465794855653</v>
+        <v>0.028666036824115705</v>
       </c>
       <c r="C42">
-        <v>0.0026546909954568531</v>
+        <v>0.59123892063467187</v>
       </c>
       <c r="D42">
-        <v>1.5872320295475704e-06</v>
+        <v>0.0028988263514852404</v>
       </c>
       <c r="E42">
-        <v>0.00076915374122709713</v>
+        <v>0.060251649624333291</v>
       </c>
       <c r="F42">
-        <v>0.97564852061965812</v>
+        <v>5.610088521481384e-05</v>
       </c>
       <c r="G42">
-        <v>3.6596779705228916e-05</v>
+        <v>0.28720033179696774</v>
       </c>
       <c r="H42">
-        <v>7.9157433818174707e-06</v>
+        <v>0.0052945793267952729</v>
       </c>
       <c r="I42">
-        <v>0.00411122944834298</v>
+        <v>0.001797077370492521</v>
       </c>
       <c r="J42">
-        <v>2.1200766482179428e-07</v>
+        <v>0.016690444663175472</v>
       </c>
       <c r="K42">
-        <v>2.9797625729609528e-05</v>
+        <v>0.0038241259030767517</v>
       </c>
       <c r="L42">
-        <v>4.0828776459234673e-05</v>
+        <v>0.00031018556571434883</v>
       </c>
       <c r="M42">
-        <v>0.0011510012354889708</v>
+        <v>0.0017717210539570792</v>
       </c>
       <c r="N42">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>0.025499421725834921</v>
+        <v>0.087492048521879473</v>
       </c>
       <c r="C43">
-        <v>0.00013341692723397027</v>
+        <v>0.0023481049311619923</v>
       </c>
       <c r="D43">
-        <v>0.91753252534848928</v>
+        <v>0.033879504637023418</v>
       </c>
       <c r="E43">
-        <v>0.010152238584174252</v>
+        <v>0.027138022908500724</v>
       </c>
       <c r="F43">
-        <v>2.2978933033505315e-05</v>
+        <v>0.0057629654546659803</v>
       </c>
       <c r="G43">
-        <v>0.0025234609548178133</v>
+        <v>0.00017894462205984054</v>
       </c>
       <c r="H43">
-        <v>0.023980123288368488</v>
+        <v>0.011896886865846735</v>
       </c>
       <c r="I43">
-        <v>0.011702203542027043</v>
+        <v>0.77743658499882173</v>
       </c>
       <c r="J43">
-        <v>0.0053564250996525316</v>
+        <v>0.0028435132359459214</v>
       </c>
       <c r="K43">
-        <v>2.7351730454120279e-05</v>
+        <v>3.2560896942024993e-05</v>
       </c>
       <c r="L43">
-        <v>0.00030091299089113929</v>
+        <v>0.0022874135170604347</v>
       </c>
       <c r="M43">
-        <v>0.002768940875022898</v>
+        <v>0.048703449410091651</v>
       </c>
       <c r="N43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>0.023641427620041747</v>
+      </c>
+      <c r="C44">
+        <v>7.1214214624545065e-05</v>
+      </c>
+      <c r="D44">
+        <v>0.90360805968393698</v>
+      </c>
+      <c r="E44">
+        <v>0.056556266196102177</v>
+      </c>
+      <c r="F44">
+        <v>6.4243370711060497e-05</v>
+      </c>
+      <c r="G44">
+        <v>0.008544472758906756</v>
+      </c>
+      <c r="H44">
+        <v>0.0038634300055453512</v>
+      </c>
+      <c r="I44">
+        <v>0.0010695274448898593</v>
+      </c>
+      <c r="J44">
+        <v>0.0017468530011215291</v>
+      </c>
+      <c r="K44">
+        <v>0.00012951747714503491</v>
+      </c>
+      <c r="L44">
+        <v>5.0147102069158978e-05</v>
+      </c>
+      <c r="M44">
+        <v>0.00065484112490576279</v>
+      </c>
+      <c r="N44">
         <v>3</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0.078054474855485806</v>
-      </c>
-      <c r="C44">
-        <v>0.015655763096251132</v>
-      </c>
-      <c r="D44">
-        <v>0.037204663804790372</v>
-      </c>
-      <c r="E44">
-        <v>0.73330300910619772</v>
-      </c>
-      <c r="F44">
-        <v>0.00019498738671068315</v>
-      </c>
-      <c r="G44">
-        <v>0.010227981761573048</v>
-      </c>
-      <c r="H44">
-        <v>0.034765463214641912</v>
-      </c>
-      <c r="I44">
-        <v>0.013546289558542065</v>
-      </c>
-      <c r="J44">
-        <v>0.013411504366115507</v>
-      </c>
-      <c r="K44">
-        <v>0.0018811555354103502</v>
-      </c>
-      <c r="L44">
-        <v>0.00067486076249739162</v>
-      </c>
-      <c r="M44">
-        <v>0.061079846551783973</v>
-      </c>
-      <c r="N44">
-        <v>4</v>
-      </c>
-    </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>0.037163976267526357</v>
+        <v>0.022698570625878198</v>
       </c>
       <c r="C45">
-        <v>0.5784929850291225</v>
+        <v>0.47939969244739927</v>
       </c>
       <c r="D45">
-        <v>0.0033677544134388224</v>
+        <v>0.00088646404338514238</v>
       </c>
       <c r="E45">
-        <v>0.074441817307743727</v>
+        <v>0.061066848645998421</v>
       </c>
       <c r="F45">
-        <v>6.0282011464949808e-05</v>
+        <v>6.7012753159070742e-05</v>
       </c>
       <c r="G45">
-        <v>0.25990053864342505</v>
+        <v>0.41563425252329622</v>
       </c>
       <c r="H45">
-        <v>0.0083607513758286629</v>
+        <v>0.002587405486570733</v>
       </c>
       <c r="I45">
-        <v>0.0042303470714308983</v>
+        <v>0.00081819273484369265</v>
       </c>
       <c r="J45">
-        <v>0.027944084126764555</v>
+        <v>0.014714486084735587</v>
       </c>
       <c r="K45">
-        <v>0.0036941558445731811</v>
+        <v>0.00061208939170807257</v>
       </c>
       <c r="L45">
-        <v>0.0005640489427399827</v>
+        <v>0.00026731073757908883</v>
       </c>
       <c r="M45">
-        <v>0.001779258965941336</v>
+        <v>0.0012476745254464275</v>
       </c>
       <c r="N45">
         <v>2</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B46">
-        <v>0.03600164672109385</v>
+        <v>0.018327717020617851</v>
       </c>
       <c r="C46">
-        <v>0.00031287671879197339</v>
+        <v>3.694851851082307e-05</v>
       </c>
       <c r="D46">
-        <v>0.88296033571444665</v>
+        <v>0.93017489208918502</v>
       </c>
       <c r="E46">
-        <v>0.051856699662611541</v>
+        <v>0.032897095775150043</v>
       </c>
       <c r="F46">
-        <v>7.5558314758641484e-05</v>
+        <v>2.2875232264830182e-05</v>
       </c>
       <c r="G46">
-        <v>0.009131259362008837</v>
+        <v>0.0027299774508209845</v>
       </c>
       <c r="H46">
-        <v>0.013588181995289871</v>
+        <v>0.01072752783981464</v>
       </c>
       <c r="I46">
-        <v>0.0018042340318786764</v>
+        <v>0.0019096762637909187</v>
       </c>
       <c r="J46">
-        <v>0.0025335675020499498</v>
+        <v>0.000238388653330043</v>
       </c>
       <c r="K46">
-        <v>0.00017967231161405934</v>
+        <v>0.0011609729596558285</v>
       </c>
       <c r="L46">
-        <v>9.2403958472497052e-05</v>
+        <v>5.0691451338330255e-05</v>
       </c>
       <c r="M46">
-        <v>0.0014635637069836506</v>
+        <v>0.0017232367455205899</v>
       </c>
       <c r="N46">
         <v>3</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B47">
-        <v>0.038776887525047286</v>
+        <v>0.023088079535085904</v>
       </c>
       <c r="C47">
-        <v>0.50623035134384686</v>
+        <v>8.1442931820288286e-05</v>
       </c>
       <c r="D47">
-        <v>0.0011899659276765901</v>
+        <v>0.92993430002961497</v>
       </c>
       <c r="E47">
-        <v>0.15607596656141576</v>
+        <v>0.032617687637955375</v>
       </c>
       <c r="F47">
-        <v>8.0117402717023268e-05</v>
+        <v>3.0788227120102867e-05</v>
       </c>
       <c r="G47">
-        <v>0.22289282399060104</v>
+        <v>0.0036397484663803306</v>
       </c>
       <c r="H47">
-        <v>0.010579338796291162</v>
+        <v>0.0064554780464794962</v>
       </c>
       <c r="I47">
-        <v>0.0024939461321038044</v>
+        <v>0.0019368065501039363</v>
       </c>
       <c r="J47">
-        <v>0.004463373221258264</v>
+        <v>0.00060032722509988708</v>
       </c>
       <c r="K47">
-        <v>0.053452049604154582</v>
+        <v>0.00095195676278403993</v>
       </c>
       <c r="L47">
-        <v>0.0003123166364952115</v>
+        <v>7.8543184974619602e-05</v>
       </c>
       <c r="M47">
-        <v>0.003452862858392516</v>
+        <v>0.00058484140258111634</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
+      <c r="A48" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B48">
-        <v>0.086615645825703733</v>
+        <v>0.035945732425782501</v>
       </c>
       <c r="C48">
-        <v>0.35228432457632436</v>
+        <v>0.00020670794039902258</v>
       </c>
       <c r="D48">
-        <v>0.023317803769868153</v>
+        <v>0.77094934814250871</v>
       </c>
       <c r="E48">
-        <v>0.10056914950968697</v>
+        <v>0.10706696705889718</v>
       </c>
       <c r="F48">
-        <v>0.00015497115553507302</v>
+        <v>6.3271046229589016e-05</v>
       </c>
       <c r="G48">
-        <v>0.16831782246358776</v>
+        <v>0.022794787475779225</v>
       </c>
       <c r="H48">
-        <v>0.012631116500205222</v>
+        <v>0.029992078033384748</v>
       </c>
       <c r="I48">
-        <v>0.0060531624331231597</v>
+        <v>0.005475075838752742</v>
       </c>
       <c r="J48">
-        <v>0.051065227804748294</v>
+        <v>0.0066594529293751304</v>
       </c>
       <c r="K48">
-        <v>0.19510218836587659</v>
+        <v>0.011497895787077682</v>
       </c>
       <c r="L48">
-        <v>0.00072319426179450115</v>
+        <v>0.00034239171115598766</v>
       </c>
       <c r="M48">
-        <v>0.0031653933335463748</v>
+        <v>0.0090062916106575606</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B49">
-        <v>0.019220828925528229</v>
+        <v>0.060894405155162527</v>
       </c>
       <c r="C49">
-        <v>0.57306868223059604</v>
+        <v>0.027863567390620944</v>
       </c>
       <c r="D49">
-        <v>0.0056554946742700205</v>
+        <v>0.010230333179333652</v>
       </c>
       <c r="E49">
-        <v>0.097189975957108501</v>
+        <v>0.72986661532946395</v>
       </c>
       <c r="F49">
-        <v>3.5578035403883259e-05</v>
+        <v>0.0001056570604286927</v>
       </c>
       <c r="G49">
-        <v>0.27332411195770173</v>
+        <v>0.077338186592233696</v>
       </c>
       <c r="H49">
-        <v>0.0069535685995349211</v>
+        <v>0.044183007334647612</v>
       </c>
       <c r="I49">
-        <v>0.0027442750738093324</v>
+        <v>0.0076979560895614621</v>
       </c>
       <c r="J49">
-        <v>0.0027860556643610796</v>
+        <v>0.0020490921263644434</v>
       </c>
       <c r="K49">
-        <v>0.015773928571834947</v>
+        <v>0.00080872610647640046</v>
       </c>
       <c r="L49">
-        <v>0.00060790215196289703</v>
+        <v>0.00057131941993501464</v>
       </c>
       <c r="M49">
-        <v>0.0026395981578882948</v>
+        <v>0.038391134215771568</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
+      <c r="A50" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B50">
-        <v>0.015694845312902543</v>
+        <v>0.021829191922108006</v>
       </c>
       <c r="C50">
-        <v>0.0036247695918465881</v>
+        <v>0.72442892014881954</v>
       </c>
       <c r="D50">
-        <v>1.0328029929492617e-06</v>
+        <v>0.0022655665664431724</v>
       </c>
       <c r="E50">
-        <v>0.00059409265897513136</v>
+        <v>0.074828721977321974</v>
       </c>
       <c r="F50">
-        <v>0.9760481309569371</v>
+        <v>5.7967450124046932e-05</v>
       </c>
       <c r="G50">
-        <v>0.00017647201196391421</v>
+        <v>0.12044183123299104</v>
       </c>
       <c r="H50">
-        <v>6.2057908807726498e-06</v>
+        <v>0.0042287914959812352</v>
       </c>
       <c r="I50">
-        <v>0.0017399529869849722</v>
+        <v>0.0020406460830402124</v>
       </c>
       <c r="J50">
-        <v>1.3065051682527967e-07</v>
+        <v>0.047768676890776331</v>
       </c>
       <c r="K50">
-        <v>4.6990333611371014e-05</v>
+        <v>0.00037425793835750343</v>
       </c>
       <c r="L50">
-        <v>2.2419360614823765e-05</v>
+        <v>0.00035631846072168465</v>
       </c>
       <c r="M50">
-        <v>0.0020449575417731637</v>
+        <v>0.0013791098333153478</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
+      <c r="A51" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B51">
-        <v>0.058575294777324836</v>
+        <v>0.093410195853533953</v>
       </c>
       <c r="C51">
-        <v>0.43135946269756476</v>
+        <v>0.26053278013056713</v>
       </c>
       <c r="D51">
-        <v>0.012972880748760468</v>
+        <v>0.012662805825414809</v>
       </c>
       <c r="E51">
-        <v>0.13712976501087279</v>
+        <v>0.23948210693341929</v>
       </c>
       <c r="F51">
-        <v>9.3107601032718347e-05</v>
+        <v>0.00026281752506259105</v>
       </c>
       <c r="G51">
-        <v>0.3270095433944824</v>
+        <v>0.29011407939938511</v>
       </c>
       <c r="H51">
-        <v>0.0039615055407701411</v>
+        <v>0.008640906269398679</v>
       </c>
       <c r="I51">
-        <v>0.0036201337769080919</v>
+        <v>0.0064583618625145096</v>
       </c>
       <c r="J51">
-        <v>0.0014612360670052782</v>
+        <v>0.017747057360841589</v>
       </c>
       <c r="K51">
-        <v>0.022061406859567406</v>
+        <v>0.059418912290873475</v>
       </c>
       <c r="L51">
-        <v>0.00031550509593163551</v>
+        <v>0.00068717453447846597</v>
       </c>
       <c r="M51">
-        <v>0.0014401584297792918</v>
+        <v>0.010582802014510439</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
+      <c r="A52" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B52">
-        <v>0.023004942940472627</v>
+        <v>0.081601474898007079</v>
       </c>
       <c r="C52">
-        <v>2.1548249832897694e-05</v>
+        <v>0.39492273730884825</v>
       </c>
       <c r="D52">
-        <v>0.93005426788653833</v>
+        <v>0.0094977781702563022</v>
       </c>
       <c r="E52">
-        <v>0.012188228617542332</v>
+        <v>0.20774492625903782</v>
       </c>
       <c r="F52">
-        <v>2.4611971809295988e-05</v>
+        <v>0.00020798375229140223</v>
       </c>
       <c r="G52">
-        <v>0.00099728178326666359</v>
+        <v>0.25725612754631949</v>
       </c>
       <c r="H52">
-        <v>0.023728258165702211</v>
+        <v>0.0081226866909257494</v>
       </c>
       <c r="I52">
-        <v>0.0062996114285754469</v>
+        <v>0.0037968211375449317</v>
       </c>
       <c r="J52">
-        <v>0.0022852800081681383</v>
+        <v>0.0063596230290428627</v>
       </c>
       <c r="K52">
-        <v>2.3843482277666708e-05</v>
+        <v>0.024165922875966243</v>
       </c>
       <c r="L52">
-        <v>8.3230558777678995e-05</v>
+        <v>0.00039044741187706385</v>
       </c>
       <c r="M52">
-        <v>0.0012888949070366685</v>
+        <v>0.0059334709198828987</v>
       </c>
       <c r="N52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>0.044146532680276969</v>
+      </c>
+      <c r="C53">
+        <v>0.71416469433735141</v>
+      </c>
+      <c r="D53">
+        <v>0.0081540982522146001</v>
+      </c>
+      <c r="E53">
+        <v>0.060803753421366499</v>
+      </c>
+      <c r="F53">
+        <v>6.2381601794345325e-05</v>
+      </c>
+      <c r="G53">
+        <v>0.11636622555740152</v>
+      </c>
+      <c r="H53">
+        <v>0.012049181394061836</v>
+      </c>
+      <c r="I53">
+        <v>0.0045892226073853118</v>
+      </c>
+      <c r="J53">
+        <v>0.034900712776111176</v>
+      </c>
+      <c r="K53">
+        <v>0.0020066297711698439</v>
+      </c>
+      <c r="L53">
+        <v>0.00096707475191505686</v>
+      </c>
+      <c r="M53">
+        <v>0.0017894928489514167</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>0.027388067056288906</v>
+      </c>
+      <c r="C54">
+        <v>0.68893720910987277</v>
+      </c>
+      <c r="D54">
+        <v>0.0035747383289406317</v>
+      </c>
+      <c r="E54">
+        <v>0.13646477461488923</v>
+      </c>
+      <c r="F54">
+        <v>5.3930720111422695e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.096956475130875533</v>
+      </c>
+      <c r="H54">
+        <v>0.0076790214379186834</v>
+      </c>
+      <c r="I54">
+        <v>0.002971352877199923</v>
+      </c>
+      <c r="J54">
+        <v>0.026130783551063495</v>
+      </c>
+      <c r="K54">
+        <v>0.0071783420589243939</v>
+      </c>
+      <c r="L54">
+        <v>0.00071480886143438199</v>
+      </c>
+      <c r="M54">
+        <v>0.0019504962524808608</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>0.0096230231070032445</v>
+      </c>
+      <c r="C55">
+        <v>0.44670877804579784</v>
+      </c>
+      <c r="D55">
+        <v>0.00063245809108425344</v>
+      </c>
+      <c r="E55">
+        <v>0.051473215434672377</v>
+      </c>
+      <c r="F55">
+        <v>1.8567090540483653e-05</v>
+      </c>
+      <c r="G55">
+        <v>0.38886922520904332</v>
+      </c>
+      <c r="H55">
+        <v>0.0016672507800915472</v>
+      </c>
+      <c r="I55">
+        <v>0.0016249010207671018</v>
+      </c>
+      <c r="J55">
+        <v>0.0011178062353465633</v>
+      </c>
+      <c r="K55">
+        <v>0.097235869063309555</v>
+      </c>
+      <c r="L55">
+        <v>0.0001494606622976943</v>
+      </c>
+      <c r="M55">
+        <v>0.00087944526004591229</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56">
+        <v>0.042572649448486807</v>
+      </c>
+      <c r="C56">
+        <v>0.48103247320327597</v>
+      </c>
+      <c r="D56">
+        <v>0.0048834027366952719</v>
+      </c>
+      <c r="E56">
+        <v>0.15858971269716007</v>
+      </c>
+      <c r="F56">
+        <v>8.659731609245623e-05</v>
+      </c>
+      <c r="G56">
+        <v>0.21321255132308109</v>
+      </c>
+      <c r="H56">
+        <v>0.0056954333668886841</v>
+      </c>
+      <c r="I56">
+        <v>0.0023661236384629122</v>
+      </c>
+      <c r="J56">
+        <v>0.0029625673679827421</v>
+      </c>
+      <c r="K56">
+        <v>0.085119353357224203</v>
+      </c>
+      <c r="L56">
+        <v>0.00047977615709632489</v>
+      </c>
+      <c r="M56">
+        <v>0.0029993593875532899</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57">
+        <v>0.021130033380431148</v>
+      </c>
+      <c r="C57">
+        <v>0.6930919992143928</v>
+      </c>
+      <c r="D57">
+        <v>0.0020402169515607205</v>
+      </c>
+      <c r="E57">
+        <v>0.11022114853988814</v>
+      </c>
+      <c r="F57">
+        <v>3.4052875227066323e-05</v>
+      </c>
+      <c r="G57">
+        <v>0.13981685023869644</v>
+      </c>
+      <c r="H57">
+        <v>0.0060518877381879315</v>
+      </c>
+      <c r="I57">
+        <v>0.0031521690015864821</v>
+      </c>
+      <c r="J57">
+        <v>0.021397697737158407</v>
+      </c>
+      <c r="K57">
+        <v>0.00065893133087717643</v>
+      </c>
+      <c r="L57">
+        <v>0.00059231848755078901</v>
+      </c>
+      <c r="M57">
+        <v>0.0018126945044430148</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58">
+        <v>0.14978978582415522</v>
+      </c>
+      <c r="C58">
+        <v>0.040983438520197889</v>
+      </c>
+      <c r="D58">
+        <v>0.013017982625634195</v>
+      </c>
+      <c r="E58">
+        <v>0.62619987932239984</v>
+      </c>
+      <c r="F58">
+        <v>0.00032676175415258187</v>
+      </c>
+      <c r="G58">
+        <v>0.059354286227329904</v>
+      </c>
+      <c r="H58">
+        <v>0.029785260353371468</v>
+      </c>
+      <c r="I58">
+        <v>0.011664194201145119</v>
+      </c>
+      <c r="J58">
+        <v>0.0067307808867581795</v>
+      </c>
+      <c r="K58">
+        <v>0.00090411504984602015</v>
+      </c>
+      <c r="L58">
+        <v>0.00061600914138319838</v>
+      </c>
+      <c r="M58">
+        <v>0.060627506093626236</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59">
+        <v>0.082501573806881182</v>
+      </c>
+      <c r="C59">
+        <v>0.16612721664247276</v>
+      </c>
+      <c r="D59">
+        <v>0.013006972074696041</v>
+      </c>
+      <c r="E59">
+        <v>0.24042852166557427</v>
+      </c>
+      <c r="F59">
+        <v>0.00087431904633182512</v>
+      </c>
+      <c r="G59">
+        <v>0.34192683266263751</v>
+      </c>
+      <c r="H59">
+        <v>0.0083658030750926819</v>
+      </c>
+      <c r="I59">
+        <v>0.003031757083101052</v>
+      </c>
+      <c r="J59">
+        <v>0.048848740405192367</v>
+      </c>
+      <c r="K59">
+        <v>0.086922021675766944</v>
+      </c>
+      <c r="L59">
+        <v>0.00039696359236550833</v>
+      </c>
+      <c r="M59">
+        <v>0.0075692782698877107</v>
+      </c>
+      <c r="N59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60">
+        <v>0.10155918170756049</v>
+      </c>
+      <c r="C60">
+        <v>0.008772963149681989</v>
+      </c>
+      <c r="D60">
+        <v>0.054516552157878928</v>
+      </c>
+      <c r="E60">
+        <v>0.67145046122911833</v>
+      </c>
+      <c r="F60">
+        <v>0.00020959993262359552</v>
+      </c>
+      <c r="G60">
+        <v>0.01415446333267056</v>
+      </c>
+      <c r="H60">
+        <v>0.066298098420905394</v>
+      </c>
+      <c r="I60">
+        <v>0.0091723881639401688</v>
+      </c>
+      <c r="J60">
+        <v>0.013205277401855646</v>
+      </c>
+      <c r="K60">
+        <v>0.00072620687357953929</v>
+      </c>
+      <c r="L60">
+        <v>0.0003573113601222375</v>
+      </c>
+      <c r="M60">
+        <v>0.059577496270063292</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61">
+        <v>0.054465940040813274</v>
+      </c>
+      <c r="C61">
+        <v>0.28846549778686703</v>
+      </c>
+      <c r="D61">
+        <v>0.014380387369753557</v>
+      </c>
+      <c r="E61">
+        <v>0.097110477856813829</v>
+      </c>
+      <c r="F61">
+        <v>0.0001464808578018835</v>
+      </c>
+      <c r="G61">
+        <v>0.33392025789835056</v>
+      </c>
+      <c r="H61">
+        <v>0.02423999720707332</v>
+      </c>
+      <c r="I61">
+        <v>0.004102877717262041</v>
+      </c>
+      <c r="J61">
+        <v>0.022817502535127845</v>
+      </c>
+      <c r="K61">
+        <v>0.1562031901302956</v>
+      </c>
+      <c r="L61">
+        <v>0.0010033030748868956</v>
+      </c>
+      <c r="M61">
+        <v>0.0031440875249540865</v>
+      </c>
+      <c r="N61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62">
+        <v>0.017837852873783255</v>
+      </c>
+      <c r="C62">
+        <v>0.70419513039807369</v>
+      </c>
+      <c r="D62">
+        <v>0.0010677370357928685</v>
+      </c>
+      <c r="E62">
+        <v>0.059354044456521662</v>
+      </c>
+      <c r="F62">
+        <v>6.0748771426150012e-05</v>
+      </c>
+      <c r="G62">
+        <v>0.19473188048832052</v>
+      </c>
+      <c r="H62">
+        <v>0.0021994812648182109</v>
+      </c>
+      <c r="I62">
+        <v>0.00088559750569907161</v>
+      </c>
+      <c r="J62">
+        <v>0.014509640653367297</v>
+      </c>
+      <c r="K62">
+        <v>0.00426889714774143</v>
+      </c>
+      <c r="L62">
+        <v>0.00015714227315699879</v>
+      </c>
+      <c r="M62">
+        <v>0.00073184713129893211</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63">
+        <v>0.015997206012048477</v>
+      </c>
+      <c r="C63">
+        <v>7.8523968429686277e-05</v>
+      </c>
+      <c r="D63">
+        <v>0.89594738922993511</v>
+      </c>
+      <c r="E63">
+        <v>0.040965417170028322</v>
+      </c>
+      <c r="F63">
+        <v>4.303117541820059e-05</v>
+      </c>
+      <c r="G63">
+        <v>0.027201513301830637</v>
+      </c>
+      <c r="H63">
+        <v>0.0093534267170841713</v>
+      </c>
+      <c r="I63">
+        <v>0.0012591505121934672</v>
+      </c>
+      <c r="J63">
+        <v>0.00025702762951307671</v>
+      </c>
+      <c r="K63">
+        <v>0.0081537867921721314</v>
+      </c>
+      <c r="L63">
+        <v>3.4662145465415634e-05</v>
+      </c>
+      <c r="M63">
+        <v>0.00070886534588124642</v>
+      </c>
+      <c r="N63">
         <v>3</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>0.11584341632020784</v>
-      </c>
-      <c r="C53">
-        <v>0.048132060601914467</v>
-      </c>
-      <c r="D53">
-        <v>0.043493390405769321</v>
-      </c>
-      <c r="E53">
-        <v>0.69536490700921183</v>
-      </c>
-      <c r="F53">
-        <v>0.00025925098254596911</v>
-      </c>
-      <c r="G53">
-        <v>0.051172049590209538</v>
-      </c>
-      <c r="H53">
-        <v>0.012319679692196113</v>
-      </c>
-      <c r="I53">
-        <v>0.0061476574041690601</v>
-      </c>
-      <c r="J53">
-        <v>0.0028849279101616754</v>
-      </c>
-      <c r="K53">
-        <v>0.0050189679234955934</v>
-      </c>
-      <c r="L53">
-        <v>0.00047592034457733494</v>
-      </c>
-      <c r="M53">
-        <v>0.01888777181554116</v>
-      </c>
-      <c r="N53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0.028666036824115705</v>
-      </c>
-      <c r="C54">
-        <v>0.59123892063467187</v>
-      </c>
-      <c r="D54">
-        <v>0.0028988263514852404</v>
-      </c>
-      <c r="E54">
-        <v>0.060251649624333291</v>
-      </c>
-      <c r="F54">
-        <v>5.610088521481384e-05</v>
-      </c>
-      <c r="G54">
-        <v>0.28720033179696774</v>
-      </c>
-      <c r="H54">
-        <v>0.0052945793267952729</v>
-      </c>
-      <c r="I54">
-        <v>0.001797077370492521</v>
-      </c>
-      <c r="J54">
-        <v>0.016690444663175472</v>
-      </c>
-      <c r="K54">
-        <v>0.0038241259030767517</v>
-      </c>
-      <c r="L54">
-        <v>0.00031018556571434883</v>
-      </c>
-      <c r="M54">
-        <v>0.0017717210539570792</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>0.087492048521879473</v>
-      </c>
-      <c r="C55">
-        <v>0.0023481049311619923</v>
-      </c>
-      <c r="D55">
-        <v>0.033879504637023418</v>
-      </c>
-      <c r="E55">
-        <v>0.027138022908500724</v>
-      </c>
-      <c r="F55">
-        <v>0.0057629654546659803</v>
-      </c>
-      <c r="G55">
-        <v>0.00017894462205984054</v>
-      </c>
-      <c r="H55">
-        <v>0.011896886865846735</v>
-      </c>
-      <c r="I55">
-        <v>0.77743658499882173</v>
-      </c>
-      <c r="J55">
-        <v>0.0028435132359459214</v>
-      </c>
-      <c r="K55">
-        <v>3.2560896942024993e-05</v>
-      </c>
-      <c r="L55">
-        <v>0.0022874135170604347</v>
-      </c>
-      <c r="M55">
-        <v>0.048703449410091651</v>
-      </c>
-      <c r="N55">
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64">
+        <v>0.08829864414106911</v>
+      </c>
+      <c r="C64">
+        <v>0.0022731332926661935</v>
+      </c>
+      <c r="D64">
+        <v>0.01143682701965908</v>
+      </c>
+      <c r="E64">
+        <v>0.013059556087178048</v>
+      </c>
+      <c r="F64">
+        <v>0.0035685517533000565</v>
+      </c>
+      <c r="G64">
+        <v>7.2140739146718723e-05</v>
+      </c>
+      <c r="H64">
+        <v>0.069236374750409793</v>
+      </c>
+      <c r="I64">
+        <v>0.79108130508011687</v>
+      </c>
+      <c r="J64">
+        <v>0.0035570676929365334</v>
+      </c>
+      <c r="K64">
+        <v>5.881883835847481e-05</v>
+      </c>
+      <c r="L64">
+        <v>0.002078488016282356</v>
+      </c>
+      <c r="M64">
+        <v>0.015279092588876738</v>
+      </c>
+      <c r="N64">
         <v>8</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>0.023641427620041747</v>
-      </c>
-      <c r="C56">
-        <v>7.1214214624545065e-05</v>
-      </c>
-      <c r="D56">
-        <v>0.90360805968393698</v>
-      </c>
-      <c r="E56">
-        <v>0.056556266196102177</v>
-      </c>
-      <c r="F56">
-        <v>6.4243370711060497e-05</v>
-      </c>
-      <c r="G56">
-        <v>0.008544472758906756</v>
-      </c>
-      <c r="H56">
-        <v>0.0038634300055453512</v>
-      </c>
-      <c r="I56">
-        <v>0.0010695274448898593</v>
-      </c>
-      <c r="J56">
-        <v>0.0017468530011215291</v>
-      </c>
-      <c r="K56">
-        <v>0.00012951747714503491</v>
-      </c>
-      <c r="L56">
-        <v>5.0147102069158978e-05</v>
-      </c>
-      <c r="M56">
-        <v>0.00065484112490576279</v>
-      </c>
-      <c r="N56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>0.022698570625878198</v>
-      </c>
-      <c r="C57">
-        <v>0.47939969244739927</v>
-      </c>
-      <c r="D57">
-        <v>0.00088646404338514238</v>
-      </c>
-      <c r="E57">
-        <v>0.061066848645998421</v>
-      </c>
-      <c r="F57">
-        <v>6.7012753159070742e-05</v>
-      </c>
-      <c r="G57">
-        <v>0.41563425252329622</v>
-      </c>
-      <c r="H57">
-        <v>0.002587405486570733</v>
-      </c>
-      <c r="I57">
-        <v>0.00081819273484369265</v>
-      </c>
-      <c r="J57">
-        <v>0.014714486084735587</v>
-      </c>
-      <c r="K57">
-        <v>0.00061208939170807257</v>
-      </c>
-      <c r="L57">
-        <v>0.00026731073757908883</v>
-      </c>
-      <c r="M57">
-        <v>0.0012476745254464275</v>
-      </c>
-      <c r="N57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>0.035746460627386054</v>
-      </c>
-      <c r="C58">
-        <v>0.0010308128635834136</v>
-      </c>
-      <c r="D58">
-        <v>1.1051551469831317e-05</v>
-      </c>
-      <c r="E58">
-        <v>0.001975397033236263</v>
-      </c>
-      <c r="F58">
-        <v>0.94504391315657899</v>
-      </c>
-      <c r="G58">
-        <v>6.2673981465808759e-05</v>
-      </c>
-      <c r="H58">
-        <v>0.00062310894180455018</v>
-      </c>
-      <c r="I58">
-        <v>0.013917195307812835</v>
-      </c>
-      <c r="J58">
-        <v>1.3088788001902083e-05</v>
-      </c>
-      <c r="K58">
-        <v>2.3663940594718341e-05</v>
-      </c>
-      <c r="L58">
-        <v>0.00028724412147519094</v>
-      </c>
-      <c r="M58">
-        <v>0.0012653896865903055</v>
-      </c>
-      <c r="N58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>0.018327717020617851</v>
-      </c>
-      <c r="C59">
-        <v>3.694851851082307e-05</v>
-      </c>
-      <c r="D59">
-        <v>0.93017489208918502</v>
-      </c>
-      <c r="E59">
-        <v>0.032897095775150043</v>
-      </c>
-      <c r="F59">
-        <v>2.2875232264830182e-05</v>
-      </c>
-      <c r="G59">
-        <v>0.0027299774508209845</v>
-      </c>
-      <c r="H59">
-        <v>0.01072752783981464</v>
-      </c>
-      <c r="I59">
-        <v>0.0019096762637909187</v>
-      </c>
-      <c r="J59">
-        <v>0.000238388653330043</v>
-      </c>
-      <c r="K59">
-        <v>0.0011609729596558285</v>
-      </c>
-      <c r="L59">
-        <v>5.0691451338330255e-05</v>
-      </c>
-      <c r="M59">
-        <v>0.0017232367455205899</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>0.023088079535085904</v>
-      </c>
-      <c r="C60">
-        <v>8.1442931820288286e-05</v>
-      </c>
-      <c r="D60">
-        <v>0.92993430002961497</v>
-      </c>
-      <c r="E60">
-        <v>0.032617687637955375</v>
-      </c>
-      <c r="F60">
-        <v>3.0788227120102867e-05</v>
-      </c>
-      <c r="G60">
-        <v>0.0036397484663803306</v>
-      </c>
-      <c r="H60">
-        <v>0.0064554780464794962</v>
-      </c>
-      <c r="I60">
-        <v>0.0019368065501039363</v>
-      </c>
-      <c r="J60">
-        <v>0.00060032722509988708</v>
-      </c>
-      <c r="K60">
-        <v>0.00095195676278403993</v>
-      </c>
-      <c r="L60">
-        <v>7.8543184974619602e-05</v>
-      </c>
-      <c r="M60">
-        <v>0.00058484140258111634</v>
-      </c>
-      <c r="N60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>0.01971594077041549</v>
-      </c>
-      <c r="C61">
-        <v>0.0073366152097786496</v>
-      </c>
-      <c r="D61">
-        <v>1.8304521150767828e-06</v>
-      </c>
-      <c r="E61">
-        <v>0.00072773417092714566</v>
-      </c>
-      <c r="F61">
-        <v>0.96650598565207979</v>
-      </c>
-      <c r="G61">
-        <v>5.1049580601128073e-05</v>
-      </c>
-      <c r="H61">
-        <v>1.365344976655388e-05</v>
-      </c>
-      <c r="I61">
-        <v>0.0034685108186554331</v>
-      </c>
-      <c r="J61">
-        <v>4.623225614561814e-07</v>
-      </c>
-      <c r="K61">
-        <v>7.5971871456606159e-05</v>
-      </c>
-      <c r="L61">
-        <v>3.5621342688977615e-05</v>
-      </c>
-      <c r="M61">
-        <v>0.0020666243589538462</v>
-      </c>
-      <c r="N61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>0.035945732425782501</v>
-      </c>
-      <c r="C62">
-        <v>0.00020670794039902258</v>
-      </c>
-      <c r="D62">
-        <v>0.77094934814250871</v>
-      </c>
-      <c r="E62">
-        <v>0.10706696705889718</v>
-      </c>
-      <c r="F62">
-        <v>6.3271046229589016e-05</v>
-      </c>
-      <c r="G62">
-        <v>0.022794787475779225</v>
-      </c>
-      <c r="H62">
-        <v>0.029992078033384748</v>
-      </c>
-      <c r="I62">
-        <v>0.005475075838752742</v>
-      </c>
-      <c r="J62">
-        <v>0.0066594529293751304</v>
-      </c>
-      <c r="K62">
-        <v>0.011497895787077682</v>
-      </c>
-      <c r="L62">
-        <v>0.00034239171115598766</v>
-      </c>
-      <c r="M62">
-        <v>0.0090062916106575606</v>
-      </c>
-      <c r="N62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>0.060894405155162527</v>
-      </c>
-      <c r="C63">
-        <v>0.027863567390620944</v>
-      </c>
-      <c r="D63">
-        <v>0.010230333179333652</v>
-      </c>
-      <c r="E63">
-        <v>0.72986661532946395</v>
-      </c>
-      <c r="F63">
-        <v>0.0001056570604286927</v>
-      </c>
-      <c r="G63">
-        <v>0.077338186592233696</v>
-      </c>
-      <c r="H63">
-        <v>0.044183007334647612</v>
-      </c>
-      <c r="I63">
-        <v>0.0076979560895614621</v>
-      </c>
-      <c r="J63">
-        <v>0.0020490921263644434</v>
-      </c>
-      <c r="K63">
-        <v>0.00080872610647640046</v>
-      </c>
-      <c r="L63">
-        <v>0.00057131941993501464</v>
-      </c>
-      <c r="M63">
-        <v>0.038391134215771568</v>
-      </c>
-      <c r="N63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>0.021829191922108006</v>
-      </c>
-      <c r="C64">
-        <v>0.72442892014881954</v>
-      </c>
-      <c r="D64">
-        <v>0.0022655665664431724</v>
-      </c>
-      <c r="E64">
-        <v>0.074828721977321974</v>
-      </c>
-      <c r="F64">
-        <v>5.7967450124046932e-05</v>
-      </c>
-      <c r="G64">
-        <v>0.12044183123299104</v>
-      </c>
-      <c r="H64">
-        <v>0.0042287914959812352</v>
-      </c>
-      <c r="I64">
-        <v>0.0020406460830402124</v>
-      </c>
-      <c r="J64">
-        <v>0.047768676890776331</v>
-      </c>
-      <c r="K64">
-        <v>0.00037425793835750343</v>
-      </c>
-      <c r="L64">
-        <v>0.00035631846072168465</v>
-      </c>
-      <c r="M64">
-        <v>0.0013791098333153478</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-    </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
+      <c r="A65" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B65">
-        <v>0.030615413327852659</v>
+        <v>0.069711505218670408</v>
       </c>
       <c r="C65">
-        <v>0.00098276353339462404</v>
+        <v>0.46415936915201422</v>
       </c>
       <c r="D65">
-        <v>7.9046220393399377e-06</v>
+        <v>0.018463945533400278</v>
       </c>
       <c r="E65">
-        <v>0.0015447181197613623</v>
+        <v>0.13434001949516164</v>
       </c>
       <c r="F65">
-        <v>0.95346701280762058</v>
+        <v>0.00023712122468382319</v>
       </c>
       <c r="G65">
-        <v>7.1389778268567705e-05</v>
+        <v>0.25645309139618405</v>
       </c>
       <c r="H65">
-        <v>0.00044059444403631736</v>
+        <v>0.010336136164509822</v>
       </c>
       <c r="I65">
-        <v>0.01218273067935329</v>
+        <v>0.0032251767185959225</v>
       </c>
       <c r="J65">
-        <v>8.5272133608569056e-06</v>
+        <v>0.034427828327258471</v>
       </c>
       <c r="K65">
-        <v>2.0297469572096876e-05</v>
+        <v>0.0032319538520220446</v>
       </c>
       <c r="L65">
-        <v>0.00022033732448911931</v>
+        <v>0.00037101700520717173</v>
       </c>
       <c r="M65">
-        <v>0.00043831068025113778</v>
+        <v>0.0050428359122918851</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
+      <c r="A66" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B66">
-        <v>0.022143720020678527</v>
+        <v>0.080226807460992602</v>
       </c>
       <c r="C66">
-        <v>0.0016585618282990698</v>
+        <v>0.22597124394662796</v>
       </c>
       <c r="D66">
-        <v>2.2528695514874482e-06</v>
+        <v>0.015130219036602062</v>
       </c>
       <c r="E66">
-        <v>0.00076210152496224181</v>
+        <v>0.2326504400305516</v>
       </c>
       <c r="F66">
-        <v>0.96782255852255072</v>
+        <v>0.00024525839302795609</v>
       </c>
       <c r="G66">
-        <v>3.812380287400367e-05</v>
+        <v>0.33596441059399784</v>
       </c>
       <c r="H66">
-        <v>5.1083804345466458e-05</v>
+        <v>0.03824429947123615</v>
       </c>
       <c r="I66">
-        <v>0.0065839015951513029</v>
+        <v>0.0059755922056459257</v>
       </c>
       <c r="J66">
-        <v>1.0994119989938046e-06</v>
+        <v>0.04349095152230989</v>
       </c>
       <c r="K66">
-        <v>1.5036598234530271e-05</v>
+        <v>0.013780580824141664</v>
       </c>
       <c r="L66">
-        <v>0.00010375055726674779</v>
+        <v>0.00081628380952751317</v>
       </c>
       <c r="M66">
-        <v>0.00081780946408690147</v>
+        <v>0.0075039127053387359</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
+      <c r="A67" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B67">
-        <v>0.019856393799555942</v>
+        <v>0.029036644260071361</v>
       </c>
       <c r="C67">
-        <v>0.0052978863575409889</v>
+        <v>0.55681525895851902</v>
       </c>
       <c r="D67">
-        <v>4.0947856198071315e-06</v>
+        <v>0.026137476361633934</v>
       </c>
       <c r="E67">
-        <v>0.0015748061552688663</v>
+        <v>0.032161830142713878</v>
       </c>
       <c r="F67">
-        <v>0.96442959402838635</v>
+        <v>2.810913779270856e-05</v>
       </c>
       <c r="G67">
-        <v>1.6084628421707088e-05</v>
+        <v>0.092770625619085334</v>
       </c>
       <c r="H67">
-        <v>7.8472846821282039e-06</v>
+        <v>0.0045413341672215519</v>
       </c>
       <c r="I67">
-        <v>0.0070373187488115795</v>
+        <v>0.0079479433762831928</v>
       </c>
       <c r="J67">
-        <v>4.136143301941329e-07</v>
+        <v>0.0044655765844811993</v>
       </c>
       <c r="K67">
-        <v>4.3488013159589339e-05</v>
+        <v>0.24207579783344663</v>
       </c>
       <c r="L67">
-        <v>3.1940239947424698e-05</v>
+        <v>0.0010564653555687367</v>
       </c>
       <c r="M67">
-        <v>0.0017001323442754088</v>
+        <v>0.0029629382031823009</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
+      <c r="A68" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B68">
-        <v>0.022500586912170061</v>
+        <v>0.0283572372791011</v>
       </c>
       <c r="C68">
-        <v>0.0007660366391834181</v>
+        <v>0.69854971641296049</v>
       </c>
       <c r="D68">
-        <v>5.8463419560189231e-06</v>
+        <v>0.0053468920403505101</v>
       </c>
       <c r="E68">
-        <v>0.00099982088241955974</v>
+        <v>0.066252873600850221</v>
       </c>
       <c r="F68">
-        <v>0.9683938653387324</v>
+        <v>8.195027346678146e-05</v>
       </c>
       <c r="G68">
-        <v>6.5729357543535747e-05</v>
+        <v>0.1600531229805145</v>
       </c>
       <c r="H68">
-        <v>0.00010242648822407038</v>
+        <v>0.0026343529417551482</v>
       </c>
       <c r="I68">
-        <v>0.006092343109860847</v>
+        <v>0.0012594040569314866</v>
       </c>
       <c r="J68">
-        <v>2.6219208118277588e-06</v>
+        <v>0.027981159925941277</v>
       </c>
       <c r="K68">
-        <v>1.2815322610821521e-05</v>
+        <v>0.0082801065749303071</v>
       </c>
       <c r="L68">
-        <v>0.00010668656394295124</v>
+        <v>0.00022739745824918003</v>
       </c>
       <c r="M68">
-        <v>0.00095122112254454529</v>
+        <v>0.00097578645494887141</v>
       </c>
       <c r="N68">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
+      <c r="A69" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B69">
-        <v>0.020861554650013669</v>
+        <v>0.026225334603294192</v>
       </c>
       <c r="C69">
-        <v>0.000748032866493694</v>
+        <v>0.62875868222093179</v>
       </c>
       <c r="D69">
-        <v>5.5991751663070169e-06</v>
+        <v>0.0011318968776644952</v>
       </c>
       <c r="E69">
-        <v>0.0010707905689394839</v>
+        <v>0.11552230202689787</v>
       </c>
       <c r="F69">
-        <v>0.9656526027667669</v>
+        <v>7.7727175186146009e-05</v>
       </c>
       <c r="G69">
-        <v>3.6800887275504635e-05</v>
+        <v>0.13117349864953479</v>
       </c>
       <c r="H69">
-        <v>6.7819038359845271e-05</v>
+        <v>0.0034050032003146982</v>
       </c>
       <c r="I69">
-        <v>0.010867079423078753</v>
+        <v>0.0012782514039431088</v>
       </c>
       <c r="J69">
-        <v>1.7268158950967465e-06</v>
+        <v>0.089430288178532519</v>
       </c>
       <c r="K69">
-        <v>1.0064746684295791e-05</v>
+        <v>0.0014629302727454526</v>
       </c>
       <c r="L69">
-        <v>0.00010774540396322032</v>
+        <v>0.00030537733460889112</v>
       </c>
       <c r="M69">
-        <v>0.00057018365736348432</v>
+        <v>0.0012287080563462521</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
+      <c r="A70" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B70">
-        <v>0.023218644276087989</v>
+        <v>0.026795017338649817</v>
       </c>
       <c r="C70">
-        <v>0.0010137862033496165</v>
+        <v>0.68400651655884415</v>
       </c>
       <c r="D70">
-        <v>3.4485143118979397e-06</v>
+        <v>0.0041618831073747886</v>
       </c>
       <c r="E70">
-        <v>0.0013306775555978968</v>
+        <v>0.11608453910739647</v>
       </c>
       <c r="F70">
-        <v>0.96469948487213619</v>
+        <v>5.9392599689790064e-05</v>
       </c>
       <c r="G70">
-        <v>0.00010679221447889245</v>
+        <v>0.12474519865120076</v>
       </c>
       <c r="H70">
-        <v>0.00013213574035744654</v>
+        <v>0.0074535529846155102</v>
       </c>
       <c r="I70">
-        <v>0.0087030976447290409</v>
+        <v>0.0021023727850009769</v>
       </c>
       <c r="J70">
-        <v>2.5989992712451174e-06</v>
+        <v>0.032164435347442503</v>
       </c>
       <c r="K70">
-        <v>2.4868925856997257e-05</v>
+        <v>0.00021687225427204356</v>
       </c>
       <c r="L70">
-        <v>0.00012817085924598671</v>
+        <v>0.00073854731040343949</v>
       </c>
       <c r="M70">
-        <v>0.00063629419457683222</v>
+        <v>0.00147167195510962</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
+      <c r="A71" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B71">
-        <v>0.093410195853533953</v>
+        <v>0.072668663602082184</v>
       </c>
       <c r="C71">
-        <v>0.26053278013056713</v>
+        <v>0.16336822906715934</v>
       </c>
       <c r="D71">
-        <v>0.012662805825414809</v>
+        <v>0.12889016922318861</v>
       </c>
       <c r="E71">
-        <v>0.23948210693341929</v>
+        <v>0.13925262633302585</v>
       </c>
       <c r="F71">
-        <v>0.00026281752506259105</v>
+        <v>0.0001287781736823842</v>
       </c>
       <c r="G71">
-        <v>0.29011407939938511</v>
+        <v>0.29818619365877169</v>
       </c>
       <c r="H71">
-        <v>0.008640906269398679</v>
+        <v>0.043563802154433173</v>
       </c>
       <c r="I71">
-        <v>0.0064583618625145096</v>
+        <v>0.012771034459799864</v>
       </c>
       <c r="J71">
-        <v>0.017747057360841589</v>
+        <v>0.071919189913902351</v>
       </c>
       <c r="K71">
-        <v>0.059418912290873475</v>
+        <v>0.055897934136685194</v>
       </c>
       <c r="L71">
-        <v>0.00068717453447846597</v>
+        <v>0.0047984658481889531</v>
       </c>
       <c r="M71">
-        <v>0.010582802014510439</v>
+        <v>0.0085549134290803901</v>
       </c>
       <c r="N71">
         <v>6</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
+      <c r="A72" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B72">
-        <v>0.081601474898007079</v>
+        <v>0.037550096538150689</v>
       </c>
       <c r="C72">
-        <v>0.39492273730884825</v>
+        <v>0.54892436519693033</v>
       </c>
       <c r="D72">
-        <v>0.0094977781702563022</v>
+        <v>0.0023533194231855153</v>
       </c>
       <c r="E72">
-        <v>0.20774492625903782</v>
+        <v>0.096387887372098607</v>
       </c>
       <c r="F72">
-        <v>0.00020798375229140223</v>
+        <v>6.5471850181752348e-05</v>
       </c>
       <c r="G72">
-        <v>0.25725612754631949</v>
+        <v>0.28670684104327615</v>
       </c>
       <c r="H72">
-        <v>0.0081226866909257494</v>
+        <v>0.0062958039909897668</v>
       </c>
       <c r="I72">
-        <v>0.0037968211375449317</v>
+        <v>0.0028659755986188838</v>
       </c>
       <c r="J72">
-        <v>0.0063596230290428627</v>
+        <v>0.0094583511064646377</v>
       </c>
       <c r="K72">
-        <v>0.024165922875966243</v>
+        <v>0.0046530754434752795</v>
       </c>
       <c r="L72">
-        <v>0.00039044741187706385</v>
+        <v>0.00052048313986614327</v>
       </c>
       <c r="M72">
-        <v>0.0059334709198828987</v>
+        <v>0.0042183292967622544</v>
       </c>
       <c r="N72">
         <v>2</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
+      <c r="A73" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B73">
-        <v>0.044146532680276969</v>
+        <v>0.050770915831472113</v>
       </c>
       <c r="C73">
-        <v>0.71416469433735141</v>
+        <v>0.37562088638170793</v>
       </c>
       <c r="D73">
-        <v>0.0081540982522146001</v>
+        <v>0.032144805465770698</v>
       </c>
       <c r="E73">
-        <v>0.060803753421366499</v>
+        <v>0.10584348712651426</v>
       </c>
       <c r="F73">
-        <v>6.2381601794345325e-05</v>
+        <v>0.00010379783412469523</v>
       </c>
       <c r="G73">
-        <v>0.11636622555740152</v>
+        <v>0.25410390114145243</v>
       </c>
       <c r="H73">
-        <v>0.012049181394061836</v>
+        <v>0.015728826132631112</v>
       </c>
       <c r="I73">
-        <v>0.0045892226073853118</v>
+        <v>0.0073343752515558991</v>
       </c>
       <c r="J73">
-        <v>0.034900712776111176</v>
+        <v>0.035490811505204438</v>
       </c>
       <c r="K73">
-        <v>0.0020066297711698439</v>
+        <v>0.12041676612840775</v>
       </c>
       <c r="L73">
-        <v>0.00096707475191505686</v>
+        <v>0.00099765523648778212</v>
       </c>
       <c r="M73">
-        <v>0.0017894928489514167</v>
+        <v>0.0014437719646709563</v>
       </c>
       <c r="N73">
         <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
+      <c r="A74" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B74">
-        <v>0.027388067056288906</v>
+        <v>0.032403434792067469</v>
       </c>
       <c r="C74">
-        <v>0.68893720910987277</v>
+        <v>0.48199445103503652</v>
       </c>
       <c r="D74">
-        <v>0.0035747383289406317</v>
+        <v>0.0016801596521281257</v>
       </c>
       <c r="E74">
-        <v>0.13646477461488923</v>
+        <v>0.16242769670563811</v>
       </c>
       <c r="F74">
-        <v>5.3930720111422695e-05</v>
+        <v>9.4581712420130533e-05</v>
       </c>
       <c r="G74">
-        <v>0.096956475130875533</v>
+        <v>0.15388565376377064</v>
       </c>
       <c r="H74">
-        <v>0.0076790214379186834</v>
+        <v>0.0027390321658825544</v>
       </c>
       <c r="I74">
-        <v>0.002971352877199923</v>
+        <v>0.0019756473777947183</v>
       </c>
       <c r="J74">
-        <v>0.026130783551063495</v>
+        <v>0.053098667952375132</v>
       </c>
       <c r="K74">
-        <v>0.0071783420589243939</v>
+        <v>0.10616682330566116</v>
       </c>
       <c r="L74">
-        <v>0.00071480886143438199</v>
+        <v>0.00035700116029048533</v>
       </c>
       <c r="M74">
-        <v>0.0019504962524808608</v>
+        <v>0.0031768503769349903</v>
       </c>
       <c r="N74">
         <v>2</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
+      <c r="A75" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B75">
-        <v>0.0096230231070032445</v>
+        <v>0.052593443810637054</v>
       </c>
       <c r="C75">
-        <v>0.44670877804579784</v>
+        <v>0.18730077644040585</v>
       </c>
       <c r="D75">
-        <v>0.00063245809108425344</v>
+        <v>0.0032145581448521699</v>
       </c>
       <c r="E75">
-        <v>0.051473215434672377</v>
+        <v>0.21845164911882115</v>
       </c>
       <c r="F75">
-        <v>1.8567090540483653e-05</v>
+        <v>0.00019574579657236007</v>
       </c>
       <c r="G75">
-        <v>0.38886922520904332</v>
+        <v>0.39667910903341758</v>
       </c>
       <c r="H75">
-        <v>0.0016672507800915472</v>
+        <v>0.010970631013848096</v>
       </c>
       <c r="I75">
-        <v>0.0016249010207671018</v>
+        <v>0.0038774709850566145</v>
       </c>
       <c r="J75">
-        <v>0.0011178062353465633</v>
+        <v>0.020135552313081836</v>
       </c>
       <c r="K75">
-        <v>0.097235869063309555</v>
+        <v>0.095896661984334691</v>
       </c>
       <c r="L75">
-        <v>0.0001494606622976943</v>
+        <v>0.00045358922703903136</v>
       </c>
       <c r="M75">
-        <v>0.00087944526004591229</v>
+        <v>0.010230812131933262</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
+      <c r="A76" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B76">
-        <v>0.055817963498947097</v>
+        <v>0.050243824016852068</v>
       </c>
       <c r="C76">
-        <v>0.076678043293308601</v>
+        <v>0.1611515983947335</v>
       </c>
       <c r="D76">
-        <v>0.023535371751251175</v>
+        <v>0.0022567613217445793</v>
       </c>
       <c r="E76">
-        <v>0.16717612039409574</v>
+        <v>0.14526304647763594</v>
       </c>
       <c r="F76">
-        <v>0.00015877694610997957</v>
+        <v>0.00019627487478728463</v>
       </c>
       <c r="G76">
-        <v>0.34159508465428601</v>
+        <v>0.55323131567772932</v>
       </c>
       <c r="H76">
-        <v>0.071007875498178635</v>
+        <v>0.010769584912535532</v>
       </c>
       <c r="I76">
-        <v>0.016855905783602129</v>
+        <v>0.0027843398122480247</v>
       </c>
       <c r="J76">
-        <v>0.06240942892154018</v>
+        <v>0.012146799310416236</v>
       </c>
       <c r="K76">
-        <v>0.15896489074485784</v>
+        <v>0.055762369008075324</v>
       </c>
       <c r="L76">
-        <v>0.0036486512317248244</v>
+        <v>0.0002007041192187564</v>
       </c>
       <c r="M76">
-        <v>0.02215188728209783</v>
+        <v>0.0059933820740233554</v>
       </c>
       <c r="N76">
         <v>6</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
+      <c r="A77" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B77">
-        <v>0.01407981442428788</v>
+        <v>0.021008425811758377</v>
       </c>
       <c r="C77">
-        <v>0.0014636513586286663</v>
+        <v>0.62905235454004371</v>
       </c>
       <c r="D77">
-        <v>1.2580510460883148e-06</v>
+        <v>0.0019690394822796361</v>
       </c>
       <c r="E77">
-        <v>0.00047357721794464148</v>
+        <v>0.12792656686639112</v>
       </c>
       <c r="F77">
-        <v>0.98061162283746328</v>
+        <v>4.8014847763907561e-05</v>
       </c>
       <c r="G77">
-        <v>7.3057784018897115e-05</v>
+        <v>0.19651696695666637</v>
       </c>
       <c r="H77">
-        <v>6.3791305953356933e-06</v>
+        <v>0.0046579683175461033</v>
       </c>
       <c r="I77">
-        <v>0.0029187876845836345</v>
+        <v>0.0017272712373045454</v>
       </c>
       <c r="J77">
-        <v>2.1272550514926094e-07</v>
+        <v>0.0076269039766232406</v>
       </c>
       <c r="K77">
-        <v>3.8709299983549996e-05</v>
+        <v>0.0070406541842461499</v>
       </c>
       <c r="L77">
-        <v>4.3977073927129964e-05</v>
+        <v>0.00058089176310061811</v>
       </c>
       <c r="M77">
-        <v>0.00028895241201577033</v>
+        <v>0.0018449420162764795</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
+      <c r="A78" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B78">
-        <v>0.020535731155586302</v>
+        <v>0.10855712768175491</v>
       </c>
       <c r="C78">
-        <v>0.01302928722783998</v>
+        <v>0.017636623802248601</v>
       </c>
       <c r="D78">
-        <v>2.2339939472730795e-06</v>
+        <v>0.13406001823125721</v>
       </c>
       <c r="E78">
-        <v>0.00060420093724447793</v>
+        <v>0.59840570474508237</v>
       </c>
       <c r="F78">
-        <v>0.96177632062928664</v>
+        <v>0.00039799175855179542</v>
       </c>
       <c r="G78">
-        <v>0.00017963106601407805</v>
+        <v>0.05298133748849828</v>
       </c>
       <c r="H78">
-        <v>3.4466916578057605e-05</v>
+        <v>0.01198287151318635</v>
       </c>
       <c r="I78">
-        <v>0.0021183015080793498</v>
+        <v>0.0083112304794717169</v>
       </c>
       <c r="J78">
-        <v>1.4847276265104282e-06</v>
+        <v>0.045666741491419117</v>
       </c>
       <c r="K78">
-        <v>0.00017792779846514703</v>
+        <v>0.0023280174693930057</v>
       </c>
       <c r="L78">
-        <v>3.80590385785802e-05</v>
+        <v>0.00056521671022587302</v>
       </c>
       <c r="M78">
-        <v>0.0015023550007536581</v>
+        <v>0.019107118628911002</v>
       </c>
       <c r="N78">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
+      <c r="A79" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B79">
-        <v>0.042572649448486807</v>
+        <v>0.029243030973935123</v>
       </c>
       <c r="C79">
-        <v>0.48103247320327597</v>
+        <v>0.68250621737594386</v>
       </c>
       <c r="D79">
-        <v>0.0048834027366952719</v>
+        <v>0.0034362755109247777</v>
       </c>
       <c r="E79">
-        <v>0.15858971269716007</v>
+        <v>0.13506052229531085</v>
       </c>
       <c r="F79">
-        <v>8.659731609245623e-05</v>
+        <v>5.1056109528311212e-05</v>
       </c>
       <c r="G79">
-        <v>0.21321255132308109</v>
+        <v>0.1290914850972314</v>
       </c>
       <c r="H79">
-        <v>0.0056954333668886841</v>
+        <v>0.0056061544361695938</v>
       </c>
       <c r="I79">
-        <v>0.0023661236384629122</v>
+        <v>0.0024390206858328875</v>
       </c>
       <c r="J79">
-        <v>0.0029625673679827421</v>
+        <v>0.0055785180260703093</v>
       </c>
       <c r="K79">
-        <v>0.085119353357224203</v>
+        <v>0.0051950723634906519</v>
       </c>
       <c r="L79">
-        <v>0.00047977615709632489</v>
+        <v>0.00038088988121164405</v>
       </c>
       <c r="M79">
-        <v>0.0029993593875532899</v>
+        <v>0.0014117572443508549</v>
       </c>
       <c r="N79">
         <v>2</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
+      <c r="A80" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B80">
-        <v>0.021130033380431148</v>
+        <v>0.018478813726336273</v>
       </c>
       <c r="C80">
-        <v>0.6930919992143928</v>
+        <v>0.66703637901706292</v>
       </c>
       <c r="D80">
-        <v>0.0020402169515607205</v>
+        <v>0.0017621239314767967</v>
       </c>
       <c r="E80">
-        <v>0.11022114853988814</v>
+        <v>0.051932851438788535</v>
       </c>
       <c r="F80">
-        <v>3.4052875227066323e-05</v>
+        <v>3.0043089885102545e-05</v>
       </c>
       <c r="G80">
-        <v>0.13981685023869644</v>
+        <v>0.24048691664994234</v>
       </c>
       <c r="H80">
-        <v>0.0060518877381879315</v>
+        <v>0.0037951315732417936</v>
       </c>
       <c r="I80">
-        <v>0.0031521690015864821</v>
+        <v>0.0019405501168893594</v>
       </c>
       <c r="J80">
-        <v>0.021397697737158407</v>
+        <v>0.0040613633674327137</v>
       </c>
       <c r="K80">
-        <v>0.00065893133087717643</v>
+        <v>0.0087231870562452674</v>
       </c>
       <c r="L80">
-        <v>0.00059231848755078901</v>
+        <v>0.00027888580453166268</v>
       </c>
       <c r="M80">
-        <v>0.0018126945044430148</v>
+        <v>0.0014737542281673135</v>
       </c>
       <c r="N80">
         <v>2</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
+      <c r="A81" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B81">
-        <v>0.14978978582415522</v>
+        <v>0.056208765213269195</v>
       </c>
       <c r="C81">
-        <v>0.040983438520197889</v>
+        <v>0.40148828169556261</v>
       </c>
       <c r="D81">
-        <v>0.013017982625634195</v>
+        <v>0.020470379932614729</v>
       </c>
       <c r="E81">
-        <v>0.62619987932239984</v>
+        <v>0.14488915637483848</v>
       </c>
       <c r="F81">
-        <v>0.00032676175415258187</v>
+        <v>0.00012907579969805301</v>
       </c>
       <c r="G81">
-        <v>0.059354286227329904</v>
+        <v>0.2392043835810326</v>
       </c>
       <c r="H81">
-        <v>0.029785260353371468</v>
+        <v>0.028031211116129273</v>
       </c>
       <c r="I81">
-        <v>0.011664194201145119</v>
+        <v>0.0071388327920238765</v>
       </c>
       <c r="J81">
-        <v>0.0067307808867581795</v>
+        <v>0.065337628966276345</v>
       </c>
       <c r="K81">
-        <v>0.00090411504984602015</v>
+        <v>0.033455756928157096</v>
       </c>
       <c r="L81">
-        <v>0.00061600914138319838</v>
+        <v>0.0008472135008026682</v>
       </c>
       <c r="M81">
-        <v>0.060627506093626236</v>
+        <v>0.0027993140995949736</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
+      <c r="A82" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B82">
-        <v>0.082501573806881182</v>
+        <v>0.01137431008080861</v>
       </c>
       <c r="C82">
-        <v>0.16612721664247276</v>
+        <v>0.75149563688266763</v>
       </c>
       <c r="D82">
-        <v>0.013006972074696041</v>
+        <v>0.00097546759056819487</v>
       </c>
       <c r="E82">
-        <v>0.24042852166557427</v>
+        <v>0.041131658391383538</v>
       </c>
       <c r="F82">
-        <v>0.00087431904633182512</v>
+        <v>2.3490058633354167e-05</v>
       </c>
       <c r="G82">
-        <v>0.34192683266263751</v>
+        <v>0.1744488068197419</v>
       </c>
       <c r="H82">
-        <v>0.0083658030750926819</v>
+        <v>0.005933178044151383</v>
       </c>
       <c r="I82">
-        <v>0.003031757083101052</v>
+        <v>0.0011444726787806763</v>
       </c>
       <c r="J82">
-        <v>0.048848740405192367</v>
+        <v>0.0112545011686451</v>
       </c>
       <c r="K82">
-        <v>0.086922021675766944</v>
+        <v>0.0010942435390633367</v>
       </c>
       <c r="L82">
-        <v>0.00039696359236550833</v>
+        <v>0.00023362652984292438</v>
       </c>
       <c r="M82">
-        <v>0.0075692782698877107</v>
+        <v>0.00089060821571331232</v>
       </c>
       <c r="N82">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
+      <c r="A83" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B83">
-        <v>0.10155918170756049</v>
+        <v>0.036162637117232263</v>
       </c>
       <c r="C83">
-        <v>0.008772963149681989</v>
+        <v>0.43151245456018605</v>
       </c>
       <c r="D83">
-        <v>0.054516552157878928</v>
+        <v>0.00358201944544926</v>
       </c>
       <c r="E83">
-        <v>0.67145046122911833</v>
+        <v>0.095908188376128384</v>
       </c>
       <c r="F83">
-        <v>0.00020959993262359552</v>
+        <v>5.0095327826693005e-05</v>
       </c>
       <c r="G83">
-        <v>0.01415446333267056</v>
+        <v>0.1106438960987835</v>
       </c>
       <c r="H83">
-        <v>0.066298098420905394</v>
+        <v>0.016578744038721858</v>
       </c>
       <c r="I83">
-        <v>0.0091723881639401688</v>
+        <v>0.0047757966598694105</v>
       </c>
       <c r="J83">
-        <v>0.013205277401855646</v>
+        <v>0.0029359254193064496</v>
       </c>
       <c r="K83">
-        <v>0.00072620687357953929</v>
+        <v>0.29528827589293188</v>
       </c>
       <c r="L83">
-        <v>0.0003573113601222375</v>
+        <v>0.00042686399430736608</v>
       </c>
       <c r="M83">
-        <v>0.059577496270063292</v>
+        <v>0.0021351030692570139</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
+      <c r="A84" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B84">
-        <v>0.054465940040813274</v>
+        <v>0.019739213066381212</v>
       </c>
       <c r="C84">
-        <v>0.28846549778686703</v>
+        <v>3.1360486884053573e-05</v>
       </c>
       <c r="D84">
-        <v>0.014380387369753557</v>
+        <v>0.94528935920248491</v>
       </c>
       <c r="E84">
-        <v>0.097110477856813829</v>
+        <v>0.026206543058335568</v>
       </c>
       <c r="F84">
-        <v>0.0001464808578018835</v>
+        <v>2.0951608061573332e-05</v>
       </c>
       <c r="G84">
-        <v>0.33392025789835056</v>
+        <v>0.0017085399283232345</v>
       </c>
       <c r="H84">
-        <v>0.02423999720707332</v>
+        <v>0.0040499219613254374</v>
       </c>
       <c r="I84">
-        <v>0.004102877717262041</v>
+        <v>0.0014639633844596965</v>
       </c>
       <c r="J84">
-        <v>0.022817502535127845</v>
+        <v>0.00026215114474211409</v>
       </c>
       <c r="K84">
-        <v>0.1562031901302956</v>
+        <v>0.00049485816103180121</v>
       </c>
       <c r="L84">
-        <v>0.0010033030748868956</v>
+        <v>5.0432944389915825e-05</v>
       </c>
       <c r="M84">
-        <v>0.0031440875249540865</v>
+        <v>0.00068270505358051516</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
+      <c r="A85" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B85">
-        <v>0.017837852873783255</v>
+        <v>0.017407680563507649</v>
       </c>
       <c r="C85">
-        <v>0.70419513039807369</v>
+        <v>6.4895301683198681e-05</v>
       </c>
       <c r="D85">
-        <v>0.0010677370357928685</v>
+        <v>0.91863401996909688</v>
       </c>
       <c r="E85">
-        <v>0.059354044456521662</v>
+        <v>0.046816067435501069</v>
       </c>
       <c r="F85">
-        <v>6.0748771426150012e-05</v>
+        <v>3.2338411733921908e-05</v>
       </c>
       <c r="G85">
-        <v>0.19473188048832052</v>
+        <v>0.0065925320424434783</v>
       </c>
       <c r="H85">
-        <v>0.0021994812648182109</v>
+        <v>0.0072375561854709251</v>
       </c>
       <c r="I85">
-        <v>0.00088559750569907161</v>
+        <v>0.0014604990057671835</v>
       </c>
       <c r="J85">
-        <v>0.014509640653367297</v>
+        <v>0.00083617624501321241</v>
       </c>
       <c r="K85">
-        <v>0.00426889714774143</v>
+        <v>0.000171933642709819</v>
       </c>
       <c r="L85">
-        <v>0.00015714227315699879</v>
+        <v>6.238890328191659e-05</v>
       </c>
       <c r="M85">
-        <v>0.00073184713129893211</v>
+        <v>0.00068391229379069539</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
